--- a/idcatalog.xlsx
+++ b/idcatalog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\idcatalogo\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\idcatalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB53F5-03EA-414F-A668-7A46AE194150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5FF643-BC52-41E0-ACBC-39C1B45F8568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{46847FCA-8772-4C2B-821D-588E0C667E44}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="1304">
   <si>
     <t>AH1350-07A</t>
   </si>
@@ -2960,6 +2960,993 @@
   </si>
   <si>
     <t>IMGSRC</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2545                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2546                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2547                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2548                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2549                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2550                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2551                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2710                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2728                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2720                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2318                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2317                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2722                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2723                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2719                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2712                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2706                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2708                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2714                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2715                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2711                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2716                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2089                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2079                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2106                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2725                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1924                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1982                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1983                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1745                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2083                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2101                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2281                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2278                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2275                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2298                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2301                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2705                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2704                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1960                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1947                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1945                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1926                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1956                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2718                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2262                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2319                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2737                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2248                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2328                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2748                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2848                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2751                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2831                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2327                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2745                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2331                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2333                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2332                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2337                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2336                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2859                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2800                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2342                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2340                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2825                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2863                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2759                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2347                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2348                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2846                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2350                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2352                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2351                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2349                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2354                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2353                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2778                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2773                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2827                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2744                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2749                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2729                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2787                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2866                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2779                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2813                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2743                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2741                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2774                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2791                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2355                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2203                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2733                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2849                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2358                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2359                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2357                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2235                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2360                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2363                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2368                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2201                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2202                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2365                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2843                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2842                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2839                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2838                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2861                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2864                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2736                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2732                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1628                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2378                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2837                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2379                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2810                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2804                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2384                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2809                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2812                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2385                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2805                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2814                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2817                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2811                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2822                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2780                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2382                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2841                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2835                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2381                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2834                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2854                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2392                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2394                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2857                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2806                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2395                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2397                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2398                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2936                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2865                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2400                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2399                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2815                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2821                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2757                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2818                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2816                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2808                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2823                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2755                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2756                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2855                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2752                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2754                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2758                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2858                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2753                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2738                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2735                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2790                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2792                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2826                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2767                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2766                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2739                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2740                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2852                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2856                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2734                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2771                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2807                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2763                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2769                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2768                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2762                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2730                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2244                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2783                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2829                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2796                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2243                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2242                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2241                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2532                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2747                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2935                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2784                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2782                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2797                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2781                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2765                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2795                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1769                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2775                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2793                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2777                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2506                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2419                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2925                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2929                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2424                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2912                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2923                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2921                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2931                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2872                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2928                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2927                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2917                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2922                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2890                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2891                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2894                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2886                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2887                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2430                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2881                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2882                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2883                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2874                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2873                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2911                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2920                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2924                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2918                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2904                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2902                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2869                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2870                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2871                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2582                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2583                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2586                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1660                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2122                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2452                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2458                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2165                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2597                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2598                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2599                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2600                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2613                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2615                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2616                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2617                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2630                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2489                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2490                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2491                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2571                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2574                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2487                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2485                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2644                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2543                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2544                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2700                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2702                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2701                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2699                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2703                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2651                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2652                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2653                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2654                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2655                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2656                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2657                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2658                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2659                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2660                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2696                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2697                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2698                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2227                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2661                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2662                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2663                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2664                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2665                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2666                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2667                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2668                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2669                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2670                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2671                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2403                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2672                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2649                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2673                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2674                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2675                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2676                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2677                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1791                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1794                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2044                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2039                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1798                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1799                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1806                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1809                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1810                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2042                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2678                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2679                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2680                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2682                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2683                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2684                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2686                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2687                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2688                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2689                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2690                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2691                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2693                  </t>
   </si>
 </sst>
 </file>
@@ -3012,10 +3999,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3331,7 +4319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A76ED3-B17C-46AB-8725-9D59597C7D79}">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:E331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3341,9 +4329,10 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="184.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>971</v>
       </c>
@@ -3356,8 +4345,11 @@
       <c r="D1" s="2" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -3370,8 +4362,11 @@
       <c r="D2" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -3384,8 +4379,11 @@
       <c r="D3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -3398,8 +4396,11 @@
       <c r="D4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -3412,8 +4413,11 @@
       <c r="D5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3426,8 +4430,11 @@
       <c r="D6" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -3440,8 +4447,11 @@
       <c r="D7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -3454,8 +4464,11 @@
       <c r="D8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -3468,8 +4481,11 @@
       <c r="D9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -3482,8 +4498,11 @@
       <c r="D10" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -3496,8 +4515,11 @@
       <c r="D11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3510,8 +4532,11 @@
       <c r="D12" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -3524,8 +4549,11 @@
       <c r="D13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -3538,8 +4566,11 @@
       <c r="D14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +4583,11 @@
       <c r="D15" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -3566,8 +4600,11 @@
       <c r="D16" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -3580,8 +4617,11 @@
       <c r="D17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -3594,8 +4634,11 @@
       <c r="D18" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -3608,8 +4651,11 @@
       <c r="D19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -3622,8 +4668,11 @@
       <c r="D20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -3636,8 +4685,11 @@
       <c r="D21" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -3650,8 +4702,11 @@
       <c r="D22" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -3664,8 +4719,11 @@
       <c r="D23" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -3678,8 +4736,11 @@
       <c r="D24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3692,8 +4753,11 @@
       <c r="D25" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -3706,8 +4770,11 @@
       <c r="D26" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -3720,8 +4787,11 @@
       <c r="D27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -3734,8 +4804,11 @@
       <c r="D28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="3" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -3748,8 +4821,11 @@
       <c r="D29" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -3762,8 +4838,11 @@
       <c r="D30" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3776,8 +4855,11 @@
       <c r="D31" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4872,11 @@
       <c r="D32" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -3804,8 +4889,11 @@
       <c r="D33" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -3818,8 +4906,11 @@
       <c r="D34" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -3832,8 +4923,11 @@
       <c r="D35" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -3846,8 +4940,11 @@
       <c r="D36" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -3860,8 +4957,11 @@
       <c r="D37" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -3874,8 +4974,11 @@
       <c r="D38" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -3888,8 +4991,11 @@
       <c r="D39" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -3902,8 +5008,11 @@
       <c r="D40" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -3916,8 +5025,11 @@
       <c r="D41" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -3930,8 +5042,11 @@
       <c r="D42" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -3944,8 +5059,11 @@
       <c r="D43" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -3958,8 +5076,11 @@
       <c r="D44" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -3972,8 +5093,11 @@
       <c r="D45" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -3986,8 +5110,11 @@
       <c r="D46" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -4000,8 +5127,11 @@
       <c r="D47" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -4014,8 +5144,11 @@
       <c r="D48" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>226</v>
       </c>
@@ -4028,8 +5161,11 @@
       <c r="D49" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>229</v>
       </c>
@@ -4042,8 +5178,11 @@
       <c r="D50" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -4056,8 +5195,11 @@
       <c r="D51" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>231</v>
       </c>
@@ -4070,8 +5212,11 @@
       <c r="D52" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -4084,8 +5229,11 @@
       <c r="D53" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>235</v>
       </c>
@@ -4098,8 +5246,11 @@
       <c r="D54" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>237</v>
       </c>
@@ -4112,8 +5263,11 @@
       <c r="D55" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>237</v>
       </c>
@@ -4126,8 +5280,11 @@
       <c r="D56" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>240</v>
       </c>
@@ -4140,8 +5297,11 @@
       <c r="D57" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>241</v>
       </c>
@@ -4154,8 +5314,11 @@
       <c r="D58" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>243</v>
       </c>
@@ -4168,8 +5331,11 @@
       <c r="D59" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>245</v>
       </c>
@@ -4182,8 +5348,11 @@
       <c r="D60" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>247</v>
       </c>
@@ -4196,8 +5365,11 @@
       <c r="D61" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>249</v>
       </c>
@@ -4210,8 +5382,11 @@
       <c r="D62" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>251</v>
       </c>
@@ -4224,8 +5399,11 @@
       <c r="D63" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>253</v>
       </c>
@@ -4238,8 +5416,11 @@
       <c r="D64" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>255</v>
       </c>
@@ -4252,8 +5433,11 @@
       <c r="D65" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>452</v>
       </c>
@@ -4266,8 +5450,11 @@
       <c r="D66" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>454</v>
       </c>
@@ -4280,8 +5467,11 @@
       <c r="D67" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>456</v>
       </c>
@@ -4294,8 +5484,11 @@
       <c r="D68" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>458</v>
       </c>
@@ -4308,8 +5501,11 @@
       <c r="D69" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>257</v>
       </c>
@@ -4322,8 +5518,11 @@
       <c r="D70" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>258</v>
       </c>
@@ -4336,8 +5535,11 @@
       <c r="D71" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>260</v>
       </c>
@@ -4350,8 +5552,11 @@
       <c r="D72" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>261</v>
       </c>
@@ -4364,8 +5569,11 @@
       <c r="D73" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>263</v>
       </c>
@@ -4378,8 +5586,11 @@
       <c r="D74" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>265</v>
       </c>
@@ -4392,8 +5603,11 @@
       <c r="D75" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>267</v>
       </c>
@@ -4406,8 +5620,11 @@
       <c r="D76" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>269</v>
       </c>
@@ -4420,8 +5637,11 @@
       <c r="D77" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>271</v>
       </c>
@@ -4434,8 +5654,11 @@
       <c r="D78" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>273</v>
       </c>
@@ -4448,8 +5671,11 @@
       <c r="D79" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>275</v>
       </c>
@@ -4462,8 +5688,11 @@
       <c r="D80" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>276</v>
       </c>
@@ -4476,8 +5705,11 @@
       <c r="D81" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>278</v>
       </c>
@@ -4490,8 +5722,11 @@
       <c r="D82" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>279</v>
       </c>
@@ -4504,8 +5739,11 @@
       <c r="D83" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>281</v>
       </c>
@@ -4518,8 +5756,11 @@
       <c r="D84" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>283</v>
       </c>
@@ -4532,8 +5773,11 @@
       <c r="D85" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>285</v>
       </c>
@@ -4546,8 +5790,11 @@
       <c r="D86" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>287</v>
       </c>
@@ -4560,8 +5807,11 @@
       <c r="D87" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>460</v>
       </c>
@@ -4574,8 +5824,11 @@
       <c r="D88" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>289</v>
       </c>
@@ -4588,8 +5841,11 @@
       <c r="D89" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>291</v>
       </c>
@@ -4602,8 +5858,11 @@
       <c r="D90" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>293</v>
       </c>
@@ -4616,8 +5875,11 @@
       <c r="D91" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>462</v>
       </c>
@@ -4630,8 +5892,11 @@
       <c r="D92" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>464</v>
       </c>
@@ -4644,8 +5909,11 @@
       <c r="D93" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>295</v>
       </c>
@@ -4658,8 +5926,11 @@
       <c r="D94" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>297</v>
       </c>
@@ -4672,8 +5943,11 @@
       <c r="D95" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>299</v>
       </c>
@@ -4686,8 +5960,11 @@
       <c r="D96" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>301</v>
       </c>
@@ -4700,8 +5977,11 @@
       <c r="D97" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>303</v>
       </c>
@@ -4714,8 +5994,11 @@
       <c r="D98" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>305</v>
       </c>
@@ -4728,8 +6011,11 @@
       <c r="D99" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>307</v>
       </c>
@@ -4742,8 +6028,11 @@
       <c r="D100" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>309</v>
       </c>
@@ -4756,8 +6045,11 @@
       <c r="D101" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>311</v>
       </c>
@@ -4770,8 +6062,11 @@
       <c r="D102" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>313</v>
       </c>
@@ -4784,8 +6079,11 @@
       <c r="D103" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>315</v>
       </c>
@@ -4798,8 +6096,11 @@
       <c r="D104" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>317</v>
       </c>
@@ -4812,8 +6113,11 @@
       <c r="D105" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>319</v>
       </c>
@@ -4826,8 +6130,11 @@
       <c r="D106" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>321</v>
       </c>
@@ -4840,8 +6147,11 @@
       <c r="D107" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="3" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>466</v>
       </c>
@@ -4854,8 +6164,11 @@
       <c r="D108" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>323</v>
       </c>
@@ -4868,8 +6181,11 @@
       <c r="D109" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>325</v>
       </c>
@@ -4882,8 +6198,11 @@
       <c r="D110" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>327</v>
       </c>
@@ -4896,8 +6215,11 @@
       <c r="D111" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>328</v>
       </c>
@@ -4910,8 +6232,11 @@
       <c r="D112" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>329</v>
       </c>
@@ -4924,8 +6249,11 @@
       <c r="D113" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>467</v>
       </c>
@@ -4938,8 +6266,11 @@
       <c r="D114" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>469</v>
       </c>
@@ -4952,8 +6283,11 @@
       <c r="D115" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>331</v>
       </c>
@@ -4966,8 +6300,11 @@
       <c r="D116" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>333</v>
       </c>
@@ -4980,8 +6317,11 @@
       <c r="D117" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>335</v>
       </c>
@@ -4994,8 +6334,11 @@
       <c r="D118" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>337</v>
       </c>
@@ -5008,8 +6351,11 @@
       <c r="D119" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>471</v>
       </c>
@@ -5022,8 +6368,11 @@
       <c r="D120" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>473</v>
       </c>
@@ -5036,8 +6385,11 @@
       <c r="D121" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>339</v>
       </c>
@@ -5050,8 +6402,11 @@
       <c r="D122" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>341</v>
       </c>
@@ -5064,8 +6419,11 @@
       <c r="D123" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>343</v>
       </c>
@@ -5078,8 +6436,11 @@
       <c r="D124" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>345</v>
       </c>
@@ -5092,8 +6453,11 @@
       <c r="D125" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>347</v>
       </c>
@@ -5106,8 +6470,11 @@
       <c r="D126" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>349</v>
       </c>
@@ -5120,8 +6487,11 @@
       <c r="D127" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>351</v>
       </c>
@@ -5134,8 +6504,11 @@
       <c r="D128" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>353</v>
       </c>
@@ -5148,8 +6521,11 @@
       <c r="D129" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>355</v>
       </c>
@@ -5162,8 +6538,11 @@
       <c r="D130" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>357</v>
       </c>
@@ -5176,8 +6555,11 @@
       <c r="D131" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>359</v>
       </c>
@@ -5190,8 +6572,11 @@
       <c r="D132" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>361</v>
       </c>
@@ -5204,8 +6589,11 @@
       <c r="D133" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>363</v>
       </c>
@@ -5218,8 +6606,11 @@
       <c r="D134" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>365</v>
       </c>
@@ -5232,8 +6623,11 @@
       <c r="D135" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>366</v>
       </c>
@@ -5246,8 +6640,11 @@
       <c r="D136" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>368</v>
       </c>
@@ -5260,8 +6657,11 @@
       <c r="D137" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>369</v>
       </c>
@@ -5274,8 +6674,11 @@
       <c r="D138" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>371</v>
       </c>
@@ -5288,8 +6691,11 @@
       <c r="D139" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>372</v>
       </c>
@@ -5302,8 +6708,11 @@
       <c r="D140" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>374</v>
       </c>
@@ -5316,8 +6725,11 @@
       <c r="D141" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>376</v>
       </c>
@@ -5330,8 +6742,11 @@
       <c r="D142" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>378</v>
       </c>
@@ -5344,8 +6759,11 @@
       <c r="D143" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>380</v>
       </c>
@@ -5358,8 +6776,11 @@
       <c r="D144" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>382</v>
       </c>
@@ -5372,8 +6793,11 @@
       <c r="D145" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>384</v>
       </c>
@@ -5386,8 +6810,11 @@
       <c r="D146" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>386</v>
       </c>
@@ -5400,8 +6827,11 @@
       <c r="D147" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>388</v>
       </c>
@@ -5414,8 +6844,11 @@
       <c r="D148" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>390</v>
       </c>
@@ -5428,8 +6861,11 @@
       <c r="D149" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>392</v>
       </c>
@@ -5442,8 +6878,11 @@
       <c r="D150" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>394</v>
       </c>
@@ -5456,8 +6895,11 @@
       <c r="D151" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>396</v>
       </c>
@@ -5470,8 +6912,11 @@
       <c r="D152" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>397</v>
       </c>
@@ -5484,8 +6929,11 @@
       <c r="D153" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>399</v>
       </c>
@@ -5498,8 +6946,11 @@
       <c r="D154" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>401</v>
       </c>
@@ -5512,8 +6963,11 @@
       <c r="D155" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>403</v>
       </c>
@@ -5526,8 +6980,11 @@
       <c r="D156" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>405</v>
       </c>
@@ -5540,8 +6997,11 @@
       <c r="D157" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>407</v>
       </c>
@@ -5554,8 +7014,11 @@
       <c r="D158" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>409</v>
       </c>
@@ -5568,8 +7031,11 @@
       <c r="D159" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>411</v>
       </c>
@@ -5582,8 +7048,11 @@
       <c r="D160" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="3" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>412</v>
       </c>
@@ -5596,8 +7065,11 @@
       <c r="D161" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="3" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>413</v>
       </c>
@@ -5610,8 +7082,11 @@
       <c r="D162" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="3" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>415</v>
       </c>
@@ -5624,8 +7099,11 @@
       <c r="D163" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>417</v>
       </c>
@@ -5638,8 +7116,11 @@
       <c r="D164" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>419</v>
       </c>
@@ -5652,8 +7133,11 @@
       <c r="D165" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="3" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>421</v>
       </c>
@@ -5666,8 +7150,11 @@
       <c r="D166" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>423</v>
       </c>
@@ -5680,8 +7167,11 @@
       <c r="D167" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="3" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>425</v>
       </c>
@@ -5694,8 +7184,11 @@
       <c r="D168" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="3" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>427</v>
       </c>
@@ -5708,8 +7201,11 @@
       <c r="D169" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>475</v>
       </c>
@@ -5722,8 +7218,11 @@
       <c r="D170" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="3" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>429</v>
       </c>
@@ -5736,8 +7235,11 @@
       <c r="D171" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>431</v>
       </c>
@@ -5750,8 +7252,11 @@
       <c r="D172" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>433</v>
       </c>
@@ -5764,8 +7269,11 @@
       <c r="D173" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="3" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>435</v>
       </c>
@@ -5778,8 +7286,11 @@
       <c r="D174" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>437</v>
       </c>
@@ -5792,8 +7303,11 @@
       <c r="D175" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>439</v>
       </c>
@@ -5806,8 +7320,11 @@
       <c r="D176" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>441</v>
       </c>
@@ -5820,8 +7337,11 @@
       <c r="D177" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>443</v>
       </c>
@@ -5834,8 +7354,11 @@
       <c r="D178" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>445</v>
       </c>
@@ -5848,8 +7371,11 @@
       <c r="D179" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="3" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>477</v>
       </c>
@@ -5862,8 +7388,11 @@
       <c r="D180" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>479</v>
       </c>
@@ -5876,8 +7405,11 @@
       <c r="D181" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="3" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>481</v>
       </c>
@@ -5890,8 +7422,11 @@
       <c r="D182" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>483</v>
       </c>
@@ -5904,8 +7439,11 @@
       <c r="D183" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>447</v>
       </c>
@@ -5918,8 +7456,11 @@
       <c r="D184" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>448</v>
       </c>
@@ -5932,8 +7473,11 @@
       <c r="D185" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="3" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>485</v>
       </c>
@@ -5946,8 +7490,11 @@
       <c r="D186" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>487</v>
       </c>
@@ -5960,8 +7507,11 @@
       <c r="D187" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>489</v>
       </c>
@@ -5974,8 +7524,11 @@
       <c r="D188" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>491</v>
       </c>
@@ -5988,8 +7541,11 @@
       <c r="D189" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>493</v>
       </c>
@@ -6002,8 +7558,11 @@
       <c r="D190" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>495</v>
       </c>
@@ -6016,8 +7575,11 @@
       <c r="D191" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="3" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>497</v>
       </c>
@@ -6030,8 +7592,11 @@
       <c r="D192" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="3" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>499</v>
       </c>
@@ -6044,8 +7609,11 @@
       <c r="D193" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="3" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>501</v>
       </c>
@@ -6058,8 +7626,11 @@
       <c r="D194" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="3" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>503</v>
       </c>
@@ -6072,8 +7643,11 @@
       <c r="D195" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="3" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>505</v>
       </c>
@@ -6086,8 +7660,11 @@
       <c r="D196" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="3" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>507</v>
       </c>
@@ -6100,8 +7677,11 @@
       <c r="D197" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="3" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>509</v>
       </c>
@@ -6114,8 +7694,11 @@
       <c r="D198" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="3" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>511</v>
       </c>
@@ -6128,8 +7711,11 @@
       <c r="D199" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="3" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>513</v>
       </c>
@@ -6142,8 +7728,11 @@
       <c r="D200" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>515</v>
       </c>
@@ -6156,8 +7745,11 @@
       <c r="D201" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>516</v>
       </c>
@@ -6170,8 +7762,11 @@
       <c r="D202" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="3" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>518</v>
       </c>
@@ -6184,8 +7779,11 @@
       <c r="D203" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="3" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>520</v>
       </c>
@@ -6198,8 +7796,11 @@
       <c r="D204" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="3" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>522</v>
       </c>
@@ -6212,8 +7813,11 @@
       <c r="D205" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="3" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>524</v>
       </c>
@@ -6226,8 +7830,11 @@
       <c r="D206" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>526</v>
       </c>
@@ -6240,8 +7847,11 @@
       <c r="D207" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="3" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>787</v>
       </c>
@@ -6254,8 +7864,11 @@
       <c r="D208" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="3" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>789</v>
       </c>
@@ -6268,8 +7881,11 @@
       <c r="D209" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>791</v>
       </c>
@@ -6282,8 +7898,11 @@
       <c r="D210" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="3" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>793</v>
       </c>
@@ -6296,8 +7915,11 @@
       <c r="D211" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="3" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>795</v>
       </c>
@@ -6310,8 +7932,11 @@
       <c r="D212" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="3" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>797</v>
       </c>
@@ -6324,8 +7949,11 @@
       <c r="D213" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>799</v>
       </c>
@@ -6338,8 +7966,11 @@
       <c r="D214" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="3" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>801</v>
       </c>
@@ -6352,8 +7983,11 @@
       <c r="D215" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>803</v>
       </c>
@@ -6366,8 +8000,11 @@
       <c r="D216" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="3" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>805</v>
       </c>
@@ -6380,8 +8017,11 @@
       <c r="D217" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="3" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>807</v>
       </c>
@@ -6394,8 +8034,11 @@
       <c r="D218" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="3" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>809</v>
       </c>
@@ -6408,8 +8051,11 @@
       <c r="D219" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="3" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>811</v>
       </c>
@@ -6422,8 +8068,11 @@
       <c r="D220" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="3" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>813</v>
       </c>
@@ -6436,8 +8085,11 @@
       <c r="D221" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="3" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>815</v>
       </c>
@@ -6450,8 +8102,11 @@
       <c r="D222" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="3" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>817</v>
       </c>
@@ -6464,8 +8119,11 @@
       <c r="D223" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>819</v>
       </c>
@@ -6478,8 +8136,11 @@
       <c r="D224" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="3" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>821</v>
       </c>
@@ -6492,8 +8153,11 @@
       <c r="D225" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="3" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>823</v>
       </c>
@@ -6506,8 +8170,11 @@
       <c r="D226" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="3" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>825</v>
       </c>
@@ -6520,8 +8187,11 @@
       <c r="D227" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>827</v>
       </c>
@@ -6534,8 +8204,11 @@
       <c r="D228" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>829</v>
       </c>
@@ -6548,8 +8221,11 @@
       <c r="D229" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>831</v>
       </c>
@@ -6562,8 +8238,11 @@
       <c r="D230" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>833</v>
       </c>
@@ -6576,8 +8255,11 @@
       <c r="D231" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="3" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>835</v>
       </c>
@@ -6590,8 +8272,11 @@
       <c r="D232" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>837</v>
       </c>
@@ -6604,8 +8289,11 @@
       <c r="D233" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>839</v>
       </c>
@@ -6618,8 +8306,11 @@
       <c r="D234" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>841</v>
       </c>
@@ -6632,8 +8323,11 @@
       <c r="D235" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>843</v>
       </c>
@@ -6646,8 +8340,11 @@
       <c r="D236" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="3" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>845</v>
       </c>
@@ -6660,8 +8357,11 @@
       <c r="D237" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>847</v>
       </c>
@@ -6674,8 +8374,11 @@
       <c r="D238" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>849</v>
       </c>
@@ -6688,8 +8391,11 @@
       <c r="D239" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>850</v>
       </c>
@@ -6702,8 +8408,11 @@
       <c r="D240" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>852</v>
       </c>
@@ -6716,8 +8425,11 @@
       <c r="D241" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>854</v>
       </c>
@@ -6730,8 +8442,11 @@
       <c r="D242" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>856</v>
       </c>
@@ -6744,8 +8459,11 @@
       <c r="D243" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>858</v>
       </c>
@@ -6758,8 +8476,11 @@
       <c r="D244" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="3" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>860</v>
       </c>
@@ -6772,8 +8493,11 @@
       <c r="D245" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="3" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>862</v>
       </c>
@@ -6786,8 +8510,11 @@
       <c r="D246" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="3" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>864</v>
       </c>
@@ -6800,8 +8527,11 @@
       <c r="D247" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>866</v>
       </c>
@@ -6814,8 +8544,11 @@
       <c r="D248" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="3" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>868</v>
       </c>
@@ -6828,8 +8561,11 @@
       <c r="D249" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>870</v>
       </c>
@@ -6842,8 +8578,11 @@
       <c r="D250" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>872</v>
       </c>
@@ -6856,8 +8595,11 @@
       <c r="D251" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>874</v>
       </c>
@@ -6870,8 +8612,11 @@
       <c r="D252" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>876</v>
       </c>
@@ -6884,8 +8629,11 @@
       <c r="D253" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>878</v>
       </c>
@@ -6898,8 +8646,11 @@
       <c r="D254" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>880</v>
       </c>
@@ -6912,8 +8663,11 @@
       <c r="D255" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>881</v>
       </c>
@@ -6926,8 +8680,11 @@
       <c r="D256" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>883</v>
       </c>
@@ -6940,8 +8697,11 @@
       <c r="D257" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>885</v>
       </c>
@@ -6954,8 +8714,11 @@
       <c r="D258" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>887</v>
       </c>
@@ -6968,8 +8731,11 @@
       <c r="D259" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>889</v>
       </c>
@@ -6982,8 +8748,11 @@
       <c r="D260" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>891</v>
       </c>
@@ -6996,8 +8765,11 @@
       <c r="D261" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>893</v>
       </c>
@@ -7010,8 +8782,11 @@
       <c r="D262" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>895</v>
       </c>
@@ -7024,8 +8799,11 @@
       <c r="D263" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="3" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>897</v>
       </c>
@@ -7038,8 +8816,11 @@
       <c r="D264" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" s="3" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>899</v>
       </c>
@@ -7052,8 +8833,11 @@
       <c r="D265" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="3" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>901</v>
       </c>
@@ -7066,8 +8850,11 @@
       <c r="D266" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="3" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>903</v>
       </c>
@@ -7080,8 +8867,11 @@
       <c r="D267" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>905</v>
       </c>
@@ -7094,8 +8884,11 @@
       <c r="D268" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>715</v>
       </c>
@@ -7108,8 +8901,11 @@
       <c r="D269" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>717</v>
       </c>
@@ -7122,8 +8918,11 @@
       <c r="D270" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>719</v>
       </c>
@@ -7136,8 +8935,11 @@
       <c r="D271" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" s="3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>721</v>
       </c>
@@ -7150,8 +8952,11 @@
       <c r="D272" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>723</v>
       </c>
@@ -7164,8 +8969,11 @@
       <c r="D273" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>725</v>
       </c>
@@ -7178,8 +8986,11 @@
       <c r="D274" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" s="3" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>727</v>
       </c>
@@ -7192,8 +9003,11 @@
       <c r="D275" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>744</v>
       </c>
@@ -7206,8 +9020,11 @@
       <c r="D276" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>746</v>
       </c>
@@ -7220,8 +9037,11 @@
       <c r="D277" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>748</v>
       </c>
@@ -7234,8 +9054,11 @@
       <c r="D278" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>750</v>
       </c>
@@ -7248,8 +9071,11 @@
       <c r="D279" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>752</v>
       </c>
@@ -7262,8 +9088,11 @@
       <c r="D280" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" s="3" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>729</v>
       </c>
@@ -7276,8 +9105,11 @@
       <c r="D281" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" s="3" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>731</v>
       </c>
@@ -7290,8 +9122,11 @@
       <c r="D282" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" s="3" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>732</v>
       </c>
@@ -7304,8 +9139,11 @@
       <c r="D283" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" s="3" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>734</v>
       </c>
@@ -7318,8 +9156,11 @@
       <c r="D284" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>736</v>
       </c>
@@ -7332,8 +9173,11 @@
       <c r="D285" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>738</v>
       </c>
@@ -7346,8 +9190,11 @@
       <c r="D286" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>740</v>
       </c>
@@ -7360,8 +9207,11 @@
       <c r="D287" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>742</v>
       </c>
@@ -7374,8 +9224,11 @@
       <c r="D288" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>208</v>
       </c>
@@ -7388,8 +9241,11 @@
       <c r="D289" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="3" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>209</v>
       </c>
@@ -7402,8 +9258,11 @@
       <c r="D290" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="3" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>210</v>
       </c>
@@ -7416,8 +9275,11 @@
       <c r="D291" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>211</v>
       </c>
@@ -7430,8 +9292,11 @@
       <c r="D292" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>212</v>
       </c>
@@ -7444,8 +9309,11 @@
       <c r="D293" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>213</v>
       </c>
@@ -7458,8 +9326,11 @@
       <c r="D294" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>214</v>
       </c>
@@ -7472,8 +9343,11 @@
       <c r="D295" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" s="3" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>215</v>
       </c>
@@ -7486,8 +9360,11 @@
       <c r="D296" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" s="3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>216</v>
       </c>
@@ -7500,8 +9377,11 @@
       <c r="D297" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>217</v>
       </c>
@@ -7514,8 +9394,11 @@
       <c r="D298" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>218</v>
       </c>
@@ -7528,8 +9411,11 @@
       <c r="D299" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>219</v>
       </c>
@@ -7542,8 +9428,11 @@
       <c r="D300" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" s="3" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>220</v>
       </c>
@@ -7556,8 +9445,11 @@
       <c r="D301" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" s="3" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>221</v>
       </c>
@@ -7570,8 +9462,11 @@
       <c r="D302" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>222</v>
       </c>
@@ -7584,8 +9479,11 @@
       <c r="D303" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" s="3" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>223</v>
       </c>
@@ -7598,8 +9496,11 @@
       <c r="D304" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" s="3" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>224</v>
       </c>
@@ -7612,8 +9513,11 @@
       <c r="D305" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" s="3" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>186</v>
       </c>
@@ -7626,8 +9530,11 @@
       <c r="D306" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>187</v>
       </c>
@@ -7640,8 +9547,11 @@
       <c r="D307" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>188</v>
       </c>
@@ -7654,8 +9564,11 @@
       <c r="D308" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>189</v>
       </c>
@@ -7668,8 +9581,11 @@
       <c r="D309" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>190</v>
       </c>
@@ -7682,8 +9598,11 @@
       <c r="D310" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>191</v>
       </c>
@@ -7696,8 +9615,11 @@
       <c r="D311" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" s="3" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>192</v>
       </c>
@@ -7710,8 +9632,11 @@
       <c r="D312" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>193</v>
       </c>
@@ -7724,8 +9649,11 @@
       <c r="D313" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" s="3" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>194</v>
       </c>
@@ -7738,8 +9666,11 @@
       <c r="D314" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>195</v>
       </c>
@@ -7752,8 +9683,11 @@
       <c r="D315" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>196</v>
       </c>
@@ -7766,8 +9700,11 @@
       <c r="D316" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" s="3" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>225</v>
       </c>
@@ -7780,8 +9717,11 @@
       <c r="D317" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" s="3" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>687</v>
       </c>
@@ -7794,8 +9734,11 @@
       <c r="D318" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" s="3" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>689</v>
       </c>
@@ -7808,8 +9751,11 @@
       <c r="D319" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" s="3" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>691</v>
       </c>
@@ -7822,8 +9768,11 @@
       <c r="D320" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" s="3" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>693</v>
       </c>
@@ -7836,8 +9785,11 @@
       <c r="D321" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" s="3" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>695</v>
       </c>
@@ -7850,8 +9802,11 @@
       <c r="D322" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" s="3" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>697</v>
       </c>
@@ -7864,8 +9819,11 @@
       <c r="D323" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" s="3" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>699</v>
       </c>
@@ -7878,8 +9836,11 @@
       <c r="D324" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" s="3" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>701</v>
       </c>
@@ -7892,8 +9853,11 @@
       <c r="D325" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>703</v>
       </c>
@@ -7906,8 +9870,11 @@
       <c r="D326" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>705</v>
       </c>
@@ -7920,8 +9887,11 @@
       <c r="D327" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" s="3" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>707</v>
       </c>
@@ -7934,8 +9904,11 @@
       <c r="D328" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" s="3" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>709</v>
       </c>
@@ -7948,8 +9921,11 @@
       <c r="D329" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" s="3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>711</v>
       </c>
@@ -7962,8 +9938,11 @@
       <c r="D330" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>713</v>
       </c>
@@ -7975,6 +9954,9 @@
       </c>
       <c r="D331" t="s">
         <v>714</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>1303</v>
       </c>
     </row>
   </sheetData>

--- a/idcatalog.xlsx
+++ b/idcatalog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\idcatalog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cataloweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5FF643-BC52-41E0-ACBC-39C1B45F8568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0E0B8E-E90E-4F88-B53F-90D578E660CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{46847FCA-8772-4C2B-821D-588E0C667E44}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="1315">
   <si>
     <t>AH1350-07A</t>
   </si>
@@ -3947,6 +3947,39 @@
   </si>
   <si>
     <t xml:space="preserve">2693                  </t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_741527-MLA99502433630_112025-O.webp</t>
+  </si>
+  <si>
+    <t>https://imgs.casasbahia.com.br/1575971213/1xg.jpg?imwidth=500</t>
+  </si>
+  <si>
+    <t>https://imgs.pontofrio.com.br/1579731447/1xg.jpg?imwidth=1000</t>
+  </si>
+  <si>
+    <t>https://imgs.casasbahia.com.br/1579849767/1xg.jpg?imwidth=1000</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/%7Bw%7Dx%7Bh%7D/armacao-bulget-bg1736m-06b/olistplus/o2e1o4ufsvhxu9rb/e71458dba9aec61dbdafa706015b4013.jpeg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRRDDjATgpVxYRutmyWiWVy_4PK3LeOYy5TCA&amp;s</t>
+  </si>
+  <si>
+    <t>https://acdn-us.mitiendanube.com/stores/001/327/083/products/bg-2110m-09b-c7142a1737d18d533417169297196043-480-0.webp</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/%7Bw%7Dx%7Bh%7D/armacao-de-oculos-bulget-bg2132m-09b-preto-fosco/oticawebmey2/bg2132m-09b-v/1a8eb593a620ceccb1dbe96581af8008.jpeg</t>
+  </si>
+  <si>
+    <t>https://oticasdiniz.vtexassets.com/arquivos/ids/646675/bg2135m-09b-1.jpg?v=638961371923030000</t>
+  </si>
+  <si>
+    <t>https://imgs.casasbahia.com.br/1579765625/1xg.jpg?imwidth=1000</t>
   </si>
 </sst>
 </file>
@@ -4319,9 +4352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A76ED3-B17C-46AB-8725-9D59597C7D79}">
-  <dimension ref="A1:E331"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7887,2082 +7922,2592 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B210" t="s">
         <v>907</v>
       </c>
       <c r="C210" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D210" t="s">
-        <v>792</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>1182</v>
+        <v>790</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B211" t="s">
         <v>907</v>
       </c>
       <c r="C211" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D211" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B212" t="s">
         <v>907</v>
       </c>
       <c r="C212" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D212" t="s">
-        <v>796</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>1184</v>
+        <v>792</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B213" t="s">
         <v>907</v>
       </c>
       <c r="C213" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D213" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B214" t="s">
         <v>907</v>
       </c>
       <c r="C214" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D214" t="s">
-        <v>800</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>1186</v>
+        <v>1305</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B215" t="s">
         <v>907</v>
       </c>
       <c r="C215" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D215" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="B216" t="s">
         <v>907</v>
       </c>
       <c r="C216" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D216" t="s">
-        <v>804</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>1188</v>
+        <v>1306</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="B217" t="s">
         <v>907</v>
       </c>
       <c r="C217" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D217" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="B218" t="s">
         <v>907</v>
       </c>
       <c r="C218" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="D218" t="s">
-        <v>808</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>1190</v>
+        <v>1307</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="B219" t="s">
         <v>907</v>
       </c>
       <c r="C219" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="D219" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="B220" t="s">
         <v>907</v>
       </c>
       <c r="C220" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="D220" t="s">
-        <v>812</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>1192</v>
+        <v>800</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="B221" t="s">
         <v>907</v>
       </c>
       <c r="C221" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D221" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="B222" t="s">
         <v>907</v>
       </c>
       <c r="C222" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="D222" t="s">
-        <v>816</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>1194</v>
+        <v>802</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="B223" t="s">
         <v>907</v>
       </c>
       <c r="C223" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="D223" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="B224" t="s">
         <v>907</v>
       </c>
       <c r="C224" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="D224" t="s">
-        <v>820</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>1196</v>
+        <v>1308</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="B225" t="s">
         <v>907</v>
       </c>
       <c r="C225" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D225" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="B226" t="s">
         <v>907</v>
       </c>
       <c r="C226" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="D226" t="s">
-        <v>824</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>1198</v>
+        <v>1309</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="B227" t="s">
         <v>907</v>
       </c>
       <c r="C227" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="D227" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="B228" t="s">
         <v>907</v>
       </c>
       <c r="C228" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="D228" t="s">
-        <v>828</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>1200</v>
+        <v>808</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="B229" t="s">
         <v>907</v>
       </c>
       <c r="C229" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="D229" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="B230" t="s">
         <v>907</v>
       </c>
       <c r="C230" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="D230" t="s">
-        <v>832</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>1202</v>
+        <v>812</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="B231" t="s">
         <v>907</v>
       </c>
       <c r="C231" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="D231" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>835</v>
+        <v>811</v>
       </c>
       <c r="B232" t="s">
         <v>907</v>
       </c>
       <c r="C232" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="D232" t="s">
-        <v>836</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>1204</v>
+        <v>812</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="B233" t="s">
         <v>907</v>
       </c>
       <c r="C233" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="D233" t="s">
-        <v>838</v>
+        <v>814</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>839</v>
+        <v>813</v>
       </c>
       <c r="B234" t="s">
         <v>907</v>
       </c>
       <c r="C234" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="D234" t="s">
-        <v>840</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>1206</v>
+        <v>814</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="B235" t="s">
         <v>907</v>
       </c>
       <c r="C235" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="D235" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>843</v>
+        <v>815</v>
       </c>
       <c r="B236" t="s">
         <v>907</v>
       </c>
       <c r="C236" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="D236" t="s">
-        <v>844</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>1208</v>
+        <v>816</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>845</v>
+        <v>817</v>
       </c>
       <c r="B237" t="s">
         <v>907</v>
       </c>
       <c r="C237" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="D237" t="s">
-        <v>846</v>
+        <v>818</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>847</v>
+        <v>817</v>
       </c>
       <c r="B238" t="s">
         <v>907</v>
       </c>
       <c r="C238" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="D238" t="s">
-        <v>848</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>1210</v>
+        <v>1310</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>849</v>
+        <v>819</v>
       </c>
       <c r="B239" t="s">
         <v>907</v>
       </c>
       <c r="C239" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="D239" t="s">
-        <v>848</v>
+        <v>820</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1211</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="B240" t="s">
         <v>907</v>
       </c>
       <c r="C240" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="D240" t="s">
-        <v>851</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>1212</v>
+        <v>820</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>852</v>
+        <v>821</v>
       </c>
       <c r="B241" t="s">
         <v>907</v>
       </c>
       <c r="C241" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="D241" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1213</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>854</v>
+        <v>821</v>
       </c>
       <c r="B242" t="s">
         <v>907</v>
       </c>
       <c r="C242" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="D242" t="s">
-        <v>855</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>1214</v>
+        <v>820</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="B243" t="s">
         <v>907</v>
       </c>
       <c r="C243" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="D243" t="s">
-        <v>857</v>
+        <v>824</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>1215</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="B244" t="s">
         <v>907</v>
       </c>
       <c r="C244" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="D244" t="s">
-        <v>859</v>
-      </c>
-      <c r="E244" s="3" t="s">
-        <v>1216</v>
+        <v>820</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>860</v>
+        <v>825</v>
       </c>
       <c r="B245" t="s">
         <v>907</v>
       </c>
       <c r="C245" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="D245" t="s">
-        <v>861</v>
+        <v>826</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>862</v>
+        <v>825</v>
       </c>
       <c r="B246" t="s">
         <v>907</v>
       </c>
       <c r="C246" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="D246" t="s">
-        <v>863</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>1218</v>
+        <v>826</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>864</v>
+        <v>827</v>
       </c>
       <c r="B247" t="s">
         <v>907</v>
       </c>
       <c r="C247" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="D247" t="s">
-        <v>865</v>
+        <v>828</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>1219</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>866</v>
+        <v>827</v>
       </c>
       <c r="B248" t="s">
         <v>907</v>
       </c>
       <c r="C248" t="s">
-        <v>948</v>
+        <v>928</v>
       </c>
       <c r="D248" t="s">
-        <v>867</v>
-      </c>
-      <c r="E248" s="3" t="s">
-        <v>1220</v>
+        <v>828</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>868</v>
+        <v>829</v>
       </c>
       <c r="B249" t="s">
         <v>907</v>
       </c>
       <c r="C249" t="s">
-        <v>949</v>
+        <v>929</v>
       </c>
       <c r="D249" t="s">
-        <v>869</v>
+        <v>830</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>1221</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>870</v>
+        <v>829</v>
       </c>
       <c r="B250" t="s">
         <v>907</v>
       </c>
       <c r="C250" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="D250" t="s">
-        <v>871</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>1222</v>
+        <v>1311</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>872</v>
+        <v>831</v>
       </c>
       <c r="B251" t="s">
         <v>907</v>
       </c>
       <c r="C251" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="D251" t="s">
-        <v>873</v>
+        <v>832</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>1223</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>874</v>
+        <v>831</v>
       </c>
       <c r="B252" t="s">
         <v>907</v>
       </c>
       <c r="C252" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="D252" t="s">
-        <v>875</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>1224</v>
+        <v>840</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>876</v>
+        <v>833</v>
       </c>
       <c r="B253" t="s">
         <v>907</v>
       </c>
       <c r="C253" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="D253" t="s">
-        <v>877</v>
+        <v>834</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>1225</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>878</v>
+        <v>833</v>
       </c>
       <c r="B254" t="s">
         <v>907</v>
       </c>
       <c r="C254" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="D254" t="s">
-        <v>879</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>1226</v>
+        <v>834</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>880</v>
+        <v>835</v>
       </c>
       <c r="B255" t="s">
         <v>907</v>
       </c>
       <c r="C255" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="D255" t="s">
-        <v>877</v>
+        <v>836</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>1227</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>881</v>
+        <v>835</v>
       </c>
       <c r="B256" t="s">
         <v>907</v>
       </c>
       <c r="C256" t="s">
-        <v>956</v>
+        <v>932</v>
       </c>
       <c r="D256" t="s">
-        <v>882</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>1228</v>
+        <v>836</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>883</v>
+        <v>837</v>
       </c>
       <c r="B257" t="s">
         <v>907</v>
       </c>
       <c r="C257" t="s">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="D257" t="s">
-        <v>884</v>
+        <v>838</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>1229</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>885</v>
+        <v>837</v>
       </c>
       <c r="B258" t="s">
         <v>907</v>
       </c>
       <c r="C258" t="s">
-        <v>958</v>
+        <v>933</v>
       </c>
       <c r="D258" t="s">
-        <v>886</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>1230</v>
+        <v>1312</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>887</v>
+        <v>839</v>
       </c>
       <c r="B259" t="s">
         <v>907</v>
       </c>
       <c r="C259" t="s">
-        <v>959</v>
+        <v>934</v>
       </c>
       <c r="D259" t="s">
-        <v>888</v>
+        <v>840</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>889</v>
+        <v>839</v>
       </c>
       <c r="B260" t="s">
         <v>907</v>
       </c>
       <c r="C260" t="s">
-        <v>960</v>
+        <v>934</v>
       </c>
       <c r="D260" t="s">
-        <v>890</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>1232</v>
+        <v>840</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>891</v>
+        <v>841</v>
       </c>
       <c r="B261" t="s">
         <v>907</v>
       </c>
       <c r="C261" t="s">
-        <v>961</v>
+        <v>935</v>
       </c>
       <c r="D261" t="s">
-        <v>892</v>
+        <v>842</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>1233</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>893</v>
+        <v>841</v>
       </c>
       <c r="B262" t="s">
         <v>907</v>
       </c>
       <c r="C262" t="s">
-        <v>962</v>
+        <v>935</v>
       </c>
       <c r="D262" t="s">
-        <v>894</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>1234</v>
+        <v>842</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>895</v>
+        <v>843</v>
       </c>
       <c r="B263" t="s">
         <v>907</v>
       </c>
       <c r="C263" t="s">
-        <v>963</v>
+        <v>936</v>
       </c>
       <c r="D263" t="s">
-        <v>896</v>
+        <v>844</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>1235</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>897</v>
+        <v>843</v>
       </c>
       <c r="B264" t="s">
         <v>907</v>
       </c>
       <c r="C264" t="s">
-        <v>964</v>
+        <v>936</v>
       </c>
       <c r="D264" t="s">
-        <v>898</v>
-      </c>
-      <c r="E264" s="3" t="s">
-        <v>1236</v>
+        <v>1313</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>899</v>
+        <v>845</v>
       </c>
       <c r="B265" t="s">
         <v>907</v>
       </c>
       <c r="C265" t="s">
-        <v>965</v>
+        <v>937</v>
       </c>
       <c r="D265" t="s">
-        <v>900</v>
+        <v>846</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>1237</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>901</v>
+        <v>845</v>
       </c>
       <c r="B266" t="s">
         <v>907</v>
       </c>
       <c r="C266" t="s">
-        <v>966</v>
+        <v>937</v>
       </c>
       <c r="D266" t="s">
-        <v>902</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>1238</v>
+        <v>1314</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>903</v>
+        <v>847</v>
       </c>
       <c r="B267" t="s">
         <v>907</v>
       </c>
       <c r="C267" t="s">
-        <v>967</v>
+        <v>938</v>
       </c>
       <c r="D267" t="s">
-        <v>904</v>
+        <v>848</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>1239</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>905</v>
+        <v>847</v>
       </c>
       <c r="B268" t="s">
-        <v>968</v>
+        <v>907</v>
       </c>
       <c r="C268" t="s">
-        <v>969</v>
+        <v>938</v>
       </c>
       <c r="D268" t="s">
-        <v>906</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>1240</v>
+        <v>848</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>715</v>
+        <v>849</v>
       </c>
       <c r="B269" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C269" t="s">
-        <v>767</v>
+        <v>939</v>
       </c>
       <c r="D269" t="s">
-        <v>716</v>
+        <v>848</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>1241</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>717</v>
+        <v>850</v>
       </c>
       <c r="B270" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C270" t="s">
-        <v>768</v>
+        <v>940</v>
       </c>
       <c r="D270" t="s">
-        <v>718</v>
+        <v>851</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>1242</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>719</v>
+        <v>852</v>
       </c>
       <c r="B271" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C271" t="s">
-        <v>769</v>
+        <v>941</v>
       </c>
       <c r="D271" t="s">
-        <v>720</v>
+        <v>853</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>1243</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>721</v>
+        <v>854</v>
       </c>
       <c r="B272" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C272" t="s">
-        <v>770</v>
+        <v>942</v>
       </c>
       <c r="D272" t="s">
-        <v>722</v>
+        <v>855</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>1244</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>723</v>
+        <v>856</v>
       </c>
       <c r="B273" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C273" t="s">
-        <v>771</v>
+        <v>943</v>
       </c>
       <c r="D273" t="s">
-        <v>724</v>
+        <v>857</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>1245</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>725</v>
+        <v>858</v>
       </c>
       <c r="B274" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C274" t="s">
-        <v>772</v>
+        <v>944</v>
       </c>
       <c r="D274" t="s">
-        <v>726</v>
+        <v>859</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>1246</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>727</v>
+        <v>860</v>
       </c>
       <c r="B275" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C275" t="s">
-        <v>773</v>
+        <v>945</v>
       </c>
       <c r="D275" t="s">
-        <v>728</v>
+        <v>861</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>1247</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>744</v>
+        <v>862</v>
       </c>
       <c r="B276" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C276" t="s">
-        <v>782</v>
+        <v>946</v>
       </c>
       <c r="D276" t="s">
-        <v>745</v>
+        <v>863</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>1248</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>746</v>
+        <v>864</v>
       </c>
       <c r="B277" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C277" t="s">
-        <v>783</v>
+        <v>947</v>
       </c>
       <c r="D277" t="s">
-        <v>747</v>
+        <v>865</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>1249</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>748</v>
+        <v>866</v>
       </c>
       <c r="B278" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C278" t="s">
-        <v>784</v>
+        <v>948</v>
       </c>
       <c r="D278" t="s">
-        <v>749</v>
+        <v>867</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>1250</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>750</v>
+        <v>868</v>
       </c>
       <c r="B279" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C279" t="s">
-        <v>785</v>
+        <v>949</v>
       </c>
       <c r="D279" t="s">
-        <v>751</v>
+        <v>869</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>1251</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>752</v>
+        <v>870</v>
       </c>
       <c r="B280" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C280" t="s">
-        <v>786</v>
+        <v>950</v>
       </c>
       <c r="D280" t="s">
-        <v>751</v>
+        <v>871</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>1252</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>729</v>
+        <v>872</v>
       </c>
       <c r="B281" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C281" t="s">
-        <v>774</v>
+        <v>951</v>
       </c>
       <c r="D281" t="s">
-        <v>730</v>
+        <v>873</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>1253</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>731</v>
+        <v>874</v>
       </c>
       <c r="B282" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C282" t="s">
-        <v>775</v>
+        <v>952</v>
       </c>
       <c r="D282" t="s">
-        <v>730</v>
+        <v>875</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>1254</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>732</v>
+        <v>876</v>
       </c>
       <c r="B283" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C283" t="s">
-        <v>776</v>
+        <v>953</v>
       </c>
       <c r="D283" t="s">
-        <v>733</v>
+        <v>877</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>1255</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>734</v>
+        <v>878</v>
       </c>
       <c r="B284" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C284" t="s">
-        <v>777</v>
+        <v>954</v>
       </c>
       <c r="D284" t="s">
-        <v>735</v>
+        <v>879</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>1256</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>736</v>
+        <v>880</v>
       </c>
       <c r="B285" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C285" t="s">
-        <v>778</v>
+        <v>955</v>
       </c>
       <c r="D285" t="s">
-        <v>737</v>
+        <v>877</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>1257</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>738</v>
+        <v>881</v>
       </c>
       <c r="B286" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C286" t="s">
-        <v>779</v>
+        <v>956</v>
       </c>
       <c r="D286" t="s">
-        <v>739</v>
+        <v>882</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>1258</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>740</v>
+        <v>883</v>
       </c>
       <c r="B287" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C287" t="s">
-        <v>780</v>
+        <v>957</v>
       </c>
       <c r="D287" t="s">
-        <v>741</v>
+        <v>884</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>1259</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>742</v>
+        <v>885</v>
       </c>
       <c r="B288" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C288" t="s">
-        <v>781</v>
+        <v>958</v>
       </c>
       <c r="D288" t="s">
-        <v>743</v>
+        <v>886</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>1260</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>208</v>
+        <v>887</v>
       </c>
       <c r="B289" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C289" t="s">
-        <v>47</v>
+        <v>959</v>
       </c>
       <c r="D289" t="s">
-        <v>149</v>
+        <v>888</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>1261</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>209</v>
+        <v>889</v>
       </c>
       <c r="B290" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C290" t="s">
-        <v>48</v>
+        <v>960</v>
       </c>
       <c r="D290" t="s">
-        <v>150</v>
+        <v>890</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>1262</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>210</v>
+        <v>891</v>
       </c>
       <c r="B291" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C291" t="s">
-        <v>49</v>
+        <v>961</v>
       </c>
       <c r="D291" t="s">
-        <v>151</v>
+        <v>892</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>1263</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>211</v>
+        <v>893</v>
       </c>
       <c r="B292" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C292" t="s">
-        <v>50</v>
+        <v>962</v>
       </c>
       <c r="D292" t="s">
-        <v>152</v>
+        <v>894</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>1264</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>212</v>
+        <v>895</v>
       </c>
       <c r="B293" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C293" t="s">
-        <v>51</v>
+        <v>963</v>
       </c>
       <c r="D293" t="s">
-        <v>153</v>
+        <v>896</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>1265</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>213</v>
+        <v>897</v>
       </c>
       <c r="B294" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C294" t="s">
-        <v>52</v>
+        <v>964</v>
       </c>
       <c r="D294" t="s">
-        <v>154</v>
+        <v>898</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>1266</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>214</v>
+        <v>899</v>
       </c>
       <c r="B295" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C295" t="s">
-        <v>53</v>
+        <v>965</v>
       </c>
       <c r="D295" t="s">
-        <v>155</v>
+        <v>900</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>1267</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>215</v>
+        <v>901</v>
       </c>
       <c r="B296" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C296" t="s">
-        <v>54</v>
+        <v>966</v>
       </c>
       <c r="D296" t="s">
-        <v>156</v>
+        <v>902</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>1268</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>216</v>
+        <v>903</v>
       </c>
       <c r="B297" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C297" t="s">
-        <v>55</v>
+        <v>967</v>
       </c>
       <c r="D297" t="s">
-        <v>157</v>
+        <v>904</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>1269</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>217</v>
+        <v>905</v>
       </c>
       <c r="B298" t="s">
-        <v>185</v>
+        <v>968</v>
       </c>
       <c r="C298" t="s">
-        <v>56</v>
+        <v>969</v>
       </c>
       <c r="D298" t="s">
-        <v>158</v>
+        <v>906</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>1270</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>218</v>
+        <v>715</v>
       </c>
       <c r="B299" t="s">
         <v>185</v>
       </c>
       <c r="C299" t="s">
-        <v>159</v>
+        <v>767</v>
       </c>
       <c r="D299" t="s">
-        <v>160</v>
+        <v>716</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>1271</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>219</v>
+        <v>717</v>
       </c>
       <c r="B300" t="s">
         <v>185</v>
       </c>
       <c r="C300" t="s">
-        <v>161</v>
+        <v>768</v>
       </c>
       <c r="D300" t="s">
-        <v>162</v>
+        <v>718</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>1272</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>220</v>
+        <v>719</v>
       </c>
       <c r="B301" t="s">
         <v>185</v>
       </c>
       <c r="C301" t="s">
-        <v>163</v>
+        <v>769</v>
       </c>
       <c r="D301" t="s">
-        <v>164</v>
+        <v>720</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>1273</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>221</v>
+        <v>721</v>
       </c>
       <c r="B302" t="s">
         <v>185</v>
       </c>
       <c r="C302" t="s">
-        <v>165</v>
+        <v>770</v>
       </c>
       <c r="D302" t="s">
-        <v>166</v>
+        <v>722</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>1274</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>222</v>
+        <v>723</v>
       </c>
       <c r="B303" t="s">
         <v>185</v>
       </c>
       <c r="C303" t="s">
-        <v>167</v>
+        <v>771</v>
       </c>
       <c r="D303" t="s">
-        <v>168</v>
+        <v>724</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>1275</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>223</v>
+        <v>725</v>
       </c>
       <c r="B304" t="s">
         <v>185</v>
       </c>
       <c r="C304" t="s">
-        <v>169</v>
+        <v>772</v>
       </c>
       <c r="D304" t="s">
-        <v>170</v>
+        <v>726</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>1276</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>224</v>
+        <v>727</v>
       </c>
       <c r="B305" t="s">
         <v>185</v>
       </c>
       <c r="C305" t="s">
-        <v>171</v>
+        <v>773</v>
       </c>
       <c r="D305" t="s">
-        <v>172</v>
+        <v>728</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>1277</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>186</v>
+        <v>744</v>
       </c>
       <c r="B306" t="s">
         <v>185</v>
       </c>
       <c r="C306" t="s">
-        <v>197</v>
+        <v>782</v>
       </c>
       <c r="D306" t="s">
-        <v>173</v>
+        <v>745</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>1278</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>187</v>
+        <v>746</v>
       </c>
       <c r="B307" t="s">
         <v>185</v>
       </c>
       <c r="C307" t="s">
-        <v>198</v>
+        <v>783</v>
       </c>
       <c r="D307" t="s">
-        <v>174</v>
+        <v>747</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>1279</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>188</v>
+        <v>748</v>
       </c>
       <c r="B308" t="s">
         <v>185</v>
       </c>
       <c r="C308" t="s">
-        <v>199</v>
+        <v>784</v>
       </c>
       <c r="D308" t="s">
-        <v>175</v>
+        <v>749</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>1280</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>189</v>
+        <v>750</v>
       </c>
       <c r="B309" t="s">
         <v>185</v>
       </c>
       <c r="C309" t="s">
-        <v>200</v>
+        <v>785</v>
       </c>
       <c r="D309" t="s">
-        <v>176</v>
+        <v>751</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>1281</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>190</v>
+        <v>752</v>
       </c>
       <c r="B310" t="s">
         <v>185</v>
       </c>
       <c r="C310" t="s">
-        <v>201</v>
+        <v>786</v>
       </c>
       <c r="D310" t="s">
-        <v>177</v>
+        <v>751</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>1282</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>191</v>
+        <v>729</v>
       </c>
       <c r="B311" t="s">
         <v>185</v>
       </c>
       <c r="C311" t="s">
-        <v>202</v>
+        <v>774</v>
       </c>
       <c r="D311" t="s">
-        <v>178</v>
+        <v>730</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>1283</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>192</v>
+        <v>731</v>
       </c>
       <c r="B312" t="s">
         <v>185</v>
       </c>
       <c r="C312" t="s">
-        <v>203</v>
+        <v>775</v>
       </c>
       <c r="D312" t="s">
-        <v>179</v>
+        <v>730</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>1284</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>193</v>
+        <v>732</v>
       </c>
       <c r="B313" t="s">
         <v>185</v>
       </c>
       <c r="C313" t="s">
-        <v>204</v>
+        <v>776</v>
       </c>
       <c r="D313" t="s">
-        <v>180</v>
+        <v>733</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>1285</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>194</v>
+        <v>734</v>
       </c>
       <c r="B314" t="s">
         <v>185</v>
       </c>
       <c r="C314" t="s">
-        <v>205</v>
+        <v>777</v>
       </c>
       <c r="D314" t="s">
-        <v>181</v>
+        <v>735</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>1286</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>195</v>
+        <v>736</v>
       </c>
       <c r="B315" t="s">
         <v>185</v>
       </c>
       <c r="C315" t="s">
-        <v>206</v>
+        <v>778</v>
       </c>
       <c r="D315" t="s">
-        <v>182</v>
+        <v>737</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>1287</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>196</v>
+        <v>738</v>
       </c>
       <c r="B316" t="s">
         <v>185</v>
       </c>
       <c r="C316" t="s">
-        <v>207</v>
+        <v>779</v>
       </c>
       <c r="D316" t="s">
-        <v>183</v>
+        <v>739</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>1288</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>225</v>
+        <v>740</v>
       </c>
       <c r="B317" t="s">
         <v>185</v>
       </c>
       <c r="C317" t="s">
-        <v>528</v>
+        <v>780</v>
       </c>
       <c r="D317" t="s">
-        <v>184</v>
+        <v>741</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>1289</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>687</v>
+        <v>742</v>
       </c>
       <c r="B318" t="s">
         <v>185</v>
       </c>
       <c r="C318" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="D318" t="s">
-        <v>688</v>
+        <v>743</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>1290</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>689</v>
+        <v>208</v>
       </c>
       <c r="B319" t="s">
         <v>185</v>
       </c>
       <c r="C319" t="s">
-        <v>754</v>
+        <v>47</v>
       </c>
       <c r="D319" t="s">
-        <v>690</v>
+        <v>149</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>1291</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>691</v>
+        <v>209</v>
       </c>
       <c r="B320" t="s">
         <v>185</v>
       </c>
       <c r="C320" t="s">
-        <v>755</v>
+        <v>48</v>
       </c>
       <c r="D320" t="s">
-        <v>692</v>
+        <v>150</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>1292</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>693</v>
+        <v>210</v>
       </c>
       <c r="B321" t="s">
         <v>185</v>
       </c>
       <c r="C321" t="s">
-        <v>756</v>
+        <v>49</v>
       </c>
       <c r="D321" t="s">
-        <v>694</v>
+        <v>151</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>1293</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>695</v>
+        <v>211</v>
       </c>
       <c r="B322" t="s">
         <v>185</v>
       </c>
       <c r="C322" t="s">
-        <v>757</v>
+        <v>50</v>
       </c>
       <c r="D322" t="s">
-        <v>696</v>
+        <v>152</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>1294</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>697</v>
+        <v>212</v>
       </c>
       <c r="B323" t="s">
         <v>185</v>
       </c>
       <c r="C323" t="s">
-        <v>758</v>
+        <v>51</v>
       </c>
       <c r="D323" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>1295</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>699</v>
+        <v>213</v>
       </c>
       <c r="B324" t="s">
         <v>185</v>
       </c>
       <c r="C324" t="s">
-        <v>759</v>
+        <v>52</v>
       </c>
       <c r="D324" t="s">
-        <v>700</v>
+        <v>154</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>1296</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>701</v>
+        <v>214</v>
       </c>
       <c r="B325" t="s">
         <v>185</v>
       </c>
       <c r="C325" t="s">
-        <v>760</v>
+        <v>53</v>
       </c>
       <c r="D325" t="s">
-        <v>702</v>
+        <v>155</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>1297</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>703</v>
+        <v>215</v>
       </c>
       <c r="B326" t="s">
         <v>185</v>
       </c>
       <c r="C326" t="s">
-        <v>761</v>
+        <v>54</v>
       </c>
       <c r="D326" t="s">
-        <v>704</v>
+        <v>156</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>1298</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>705</v>
+        <v>216</v>
       </c>
       <c r="B327" t="s">
         <v>185</v>
       </c>
       <c r="C327" t="s">
-        <v>762</v>
+        <v>55</v>
       </c>
       <c r="D327" t="s">
-        <v>706</v>
+        <v>157</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>1299</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>707</v>
+        <v>217</v>
       </c>
       <c r="B328" t="s">
         <v>185</v>
       </c>
       <c r="C328" t="s">
-        <v>763</v>
+        <v>56</v>
       </c>
       <c r="D328" t="s">
-        <v>708</v>
+        <v>158</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>1300</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>709</v>
+        <v>218</v>
       </c>
       <c r="B329" t="s">
         <v>185</v>
       </c>
       <c r="C329" t="s">
-        <v>764</v>
+        <v>159</v>
       </c>
       <c r="D329" t="s">
-        <v>710</v>
+        <v>160</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>1301</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>711</v>
+        <v>219</v>
       </c>
       <c r="B330" t="s">
         <v>185</v>
       </c>
       <c r="C330" t="s">
-        <v>765</v>
+        <v>161</v>
       </c>
       <c r="D330" t="s">
-        <v>712</v>
+        <v>162</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>1302</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>713</v>
+        <v>220</v>
       </c>
       <c r="B331" t="s">
         <v>185</v>
       </c>
       <c r="C331" t="s">
+        <v>163</v>
+      </c>
+      <c r="D331" t="s">
+        <v>164</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>221</v>
+      </c>
+      <c r="B332" t="s">
+        <v>185</v>
+      </c>
+      <c r="C332" t="s">
+        <v>165</v>
+      </c>
+      <c r="D332" t="s">
+        <v>166</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>222</v>
+      </c>
+      <c r="B333" t="s">
+        <v>185</v>
+      </c>
+      <c r="C333" t="s">
+        <v>167</v>
+      </c>
+      <c r="D333" t="s">
+        <v>168</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>223</v>
+      </c>
+      <c r="B334" t="s">
+        <v>185</v>
+      </c>
+      <c r="C334" t="s">
+        <v>169</v>
+      </c>
+      <c r="D334" t="s">
+        <v>170</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>224</v>
+      </c>
+      <c r="B335" t="s">
+        <v>185</v>
+      </c>
+      <c r="C335" t="s">
+        <v>171</v>
+      </c>
+      <c r="D335" t="s">
+        <v>172</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>186</v>
+      </c>
+      <c r="B336" t="s">
+        <v>185</v>
+      </c>
+      <c r="C336" t="s">
+        <v>197</v>
+      </c>
+      <c r="D336" t="s">
+        <v>173</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>187</v>
+      </c>
+      <c r="B337" t="s">
+        <v>185</v>
+      </c>
+      <c r="C337" t="s">
+        <v>198</v>
+      </c>
+      <c r="D337" t="s">
+        <v>174</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>188</v>
+      </c>
+      <c r="B338" t="s">
+        <v>185</v>
+      </c>
+      <c r="C338" t="s">
+        <v>199</v>
+      </c>
+      <c r="D338" t="s">
+        <v>175</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>189</v>
+      </c>
+      <c r="B339" t="s">
+        <v>185</v>
+      </c>
+      <c r="C339" t="s">
+        <v>200</v>
+      </c>
+      <c r="D339" t="s">
+        <v>176</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>190</v>
+      </c>
+      <c r="B340" t="s">
+        <v>185</v>
+      </c>
+      <c r="C340" t="s">
+        <v>201</v>
+      </c>
+      <c r="D340" t="s">
+        <v>177</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>191</v>
+      </c>
+      <c r="B341" t="s">
+        <v>185</v>
+      </c>
+      <c r="C341" t="s">
+        <v>202</v>
+      </c>
+      <c r="D341" t="s">
+        <v>178</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>192</v>
+      </c>
+      <c r="B342" t="s">
+        <v>185</v>
+      </c>
+      <c r="C342" t="s">
+        <v>203</v>
+      </c>
+      <c r="D342" t="s">
+        <v>179</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>193</v>
+      </c>
+      <c r="B343" t="s">
+        <v>185</v>
+      </c>
+      <c r="C343" t="s">
+        <v>204</v>
+      </c>
+      <c r="D343" t="s">
+        <v>180</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>194</v>
+      </c>
+      <c r="B344" t="s">
+        <v>185</v>
+      </c>
+      <c r="C344" t="s">
+        <v>205</v>
+      </c>
+      <c r="D344" t="s">
+        <v>181</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>195</v>
+      </c>
+      <c r="B345" t="s">
+        <v>185</v>
+      </c>
+      <c r="C345" t="s">
+        <v>206</v>
+      </c>
+      <c r="D345" t="s">
+        <v>182</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>196</v>
+      </c>
+      <c r="B346" t="s">
+        <v>185</v>
+      </c>
+      <c r="C346" t="s">
+        <v>207</v>
+      </c>
+      <c r="D346" t="s">
+        <v>183</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>225</v>
+      </c>
+      <c r="B347" t="s">
+        <v>185</v>
+      </c>
+      <c r="C347" t="s">
+        <v>528</v>
+      </c>
+      <c r="D347" t="s">
+        <v>184</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>687</v>
+      </c>
+      <c r="B348" t="s">
+        <v>185</v>
+      </c>
+      <c r="C348" t="s">
+        <v>753</v>
+      </c>
+      <c r="D348" t="s">
+        <v>688</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>689</v>
+      </c>
+      <c r="B349" t="s">
+        <v>185</v>
+      </c>
+      <c r="C349" t="s">
+        <v>754</v>
+      </c>
+      <c r="D349" t="s">
+        <v>690</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>691</v>
+      </c>
+      <c r="B350" t="s">
+        <v>185</v>
+      </c>
+      <c r="C350" t="s">
+        <v>755</v>
+      </c>
+      <c r="D350" t="s">
+        <v>692</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>693</v>
+      </c>
+      <c r="B351" t="s">
+        <v>185</v>
+      </c>
+      <c r="C351" t="s">
+        <v>756</v>
+      </c>
+      <c r="D351" t="s">
+        <v>694</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>695</v>
+      </c>
+      <c r="B352" t="s">
+        <v>185</v>
+      </c>
+      <c r="C352" t="s">
+        <v>757</v>
+      </c>
+      <c r="D352" t="s">
+        <v>696</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>697</v>
+      </c>
+      <c r="B353" t="s">
+        <v>185</v>
+      </c>
+      <c r="C353" t="s">
+        <v>758</v>
+      </c>
+      <c r="D353" t="s">
+        <v>698</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>699</v>
+      </c>
+      <c r="B354" t="s">
+        <v>185</v>
+      </c>
+      <c r="C354" t="s">
+        <v>759</v>
+      </c>
+      <c r="D354" t="s">
+        <v>700</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>701</v>
+      </c>
+      <c r="B355" t="s">
+        <v>185</v>
+      </c>
+      <c r="C355" t="s">
+        <v>760</v>
+      </c>
+      <c r="D355" t="s">
+        <v>702</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>703</v>
+      </c>
+      <c r="B356" t="s">
+        <v>185</v>
+      </c>
+      <c r="C356" t="s">
+        <v>761</v>
+      </c>
+      <c r="D356" t="s">
+        <v>704</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>705</v>
+      </c>
+      <c r="B357" t="s">
+        <v>185</v>
+      </c>
+      <c r="C357" t="s">
+        <v>762</v>
+      </c>
+      <c r="D357" t="s">
+        <v>706</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>707</v>
+      </c>
+      <c r="B358" t="s">
+        <v>185</v>
+      </c>
+      <c r="C358" t="s">
+        <v>763</v>
+      </c>
+      <c r="D358" t="s">
+        <v>708</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>709</v>
+      </c>
+      <c r="B359" t="s">
+        <v>185</v>
+      </c>
+      <c r="C359" t="s">
+        <v>764</v>
+      </c>
+      <c r="D359" t="s">
+        <v>710</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>711</v>
+      </c>
+      <c r="B360" t="s">
+        <v>185</v>
+      </c>
+      <c r="C360" t="s">
+        <v>765</v>
+      </c>
+      <c r="D360" t="s">
+        <v>712</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>713</v>
+      </c>
+      <c r="B361" t="s">
+        <v>185</v>
+      </c>
+      <c r="C361" t="s">
         <v>766</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D361" t="s">
         <v>714</v>
       </c>
-      <c r="E331" s="3" t="s">
+      <c r="E361" s="3" t="s">
         <v>1303</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D331">
-    <sortCondition ref="B2:B331"/>
-    <sortCondition ref="C2:C331"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E361">
+    <sortCondition ref="B2:B361"/>
+    <sortCondition ref="C2:C361"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{6534ED97-EC8B-4840-A548-CBC00BB56CA8}"/>

--- a/idcatalog.xlsx
+++ b/idcatalog.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cataloweb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\catalowebBK\cataloweb-main-191225\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0E0B8E-E90E-4F88-B53F-90D578E660CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A293CE4-CB58-4529-BA0D-56D0236122A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{46847FCA-8772-4C2B-821D-588E0C667E44}"/>
   </bookViews>
   <sheets>
     <sheet name="idcatalog" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">idcatalog!$A$1:$E$331</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="1330">
   <si>
     <t>AH1350-07A</t>
   </si>
@@ -3949,9 +3952,6 @@
     <t xml:space="preserve">2693                  </t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_741527-MLA99502433630_112025-O.webp</t>
   </si>
   <si>
@@ -3980,6 +3980,54 @@
   </si>
   <si>
     <t>https://imgs.casasbahia.com.br/1579765625/1xg.jpg?imwidth=1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427                  </t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR4cq-LXj0YRMpOAzNYRpMKkbADiSu49LInVQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://imgs.extra.com.br/1575710145/1xg.jpg</t>
+  </si>
+  <si>
+    <t>https://loja.oticaademar.com.br/image/cache/catalog/Produtos/58713%20-%20Armacao%20Bulget%20BG2129M%2009B%2056-17%2001-350x350.jpg</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/%7Bw%7Dx%7Bh%7D/armacao-de-oculos-bulget-bg2151m-02a-cinza-brilho/oticawebmey2/bg2151m-02a-v/81e9f284c4841724f99299b3f8cf4995.jpeg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQqN_2msh_JHczmJ8NZk6ijfy2XHST2aq8qDw&amp;s</t>
+  </si>
+  <si>
+    <t>https://carrefourbr.vtexassets.com/arquivos/ids/206317058/image-0.jpg?v=638980411771000000</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/5cd471_c8dbaa3cdac5416bac5e349d69923018~mv2.jpg/v1/fill/w_980,h_740,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/5cd471_c8dbaa3cdac5416bac5e349d69923018~mv2.jpg</t>
+  </si>
+  <si>
+    <t>https://imgs.extra.com.br/1576874909/1xg.jpg</t>
+  </si>
+  <si>
+    <t>https://oticasdiniz.vtexassets.com/arquivos/ids/646604/bg6437m-a11-1.jpg?v=638961204456800000</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS_oTNHU0UoG6sM1cf6J53LBu2pr6E_VUYScA&amp;s</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/%7Bw%7Dx%7Bh%7D/armacao-de-oculos-bulget-bg6438m-e11-verde-fosco/lojasolare/bg6438m-e11-v/e55f053d33ca18067a4a04ba34eebb78.jpeg</t>
+  </si>
+  <si>
+    <t>https://loja.oticaademar.com.br/image/cache/catalog/Produtos/60662%20-%20Armacao%20Bulget%20BG7213I%20G01%2054-17%2004-800x800.jpg</t>
+  </si>
+  <si>
+    <t>https://imgs.casasbahia.com.br/1579751954/1xg.jpg?imwidth=1000</t>
+  </si>
+  <si>
+    <t>https://loja.oticaademar.com.br/image/cache/catalog/Produtos/60669%20-%20Oculos%20de%20Sol%20Bulget%20BG8096M%20H02P%2058-16%2001-800x800.jpg</t>
+  </si>
+  <si>
+    <t>https://images.tcdn.com.br/img/img_prod/877056/oculos_de_sol_original_bulget_em_acetato_masculino_polarizado_bg9162m_11527_variacao_20209_2_d3917ec00fd99e60c7acbc65dba839e8.jpg</t>
   </si>
 </sst>
 </file>
@@ -4352,7 +4400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A76ED3-B17C-46AB-8725-9D59597C7D79}">
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4363,7 +4411,7 @@
     <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="184.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="186.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7930,11 +7978,11 @@
       <c r="C210" t="s">
         <v>909</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="1" t="s">
         <v>790</v>
       </c>
       <c r="E210" t="s">
-        <v>1304</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -7968,7 +8016,7 @@
         <v>792</v>
       </c>
       <c r="E212" t="s">
-        <v>1304</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -7999,10 +8047,10 @@
         <v>911</v>
       </c>
       <c r="D214" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E214" t="s">
-        <v>1304</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -8033,10 +8081,10 @@
         <v>912</v>
       </c>
       <c r="D216" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E216" t="s">
-        <v>1304</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -8067,10 +8115,10 @@
         <v>913</v>
       </c>
       <c r="D218" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E218" t="s">
-        <v>1304</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -8100,11 +8148,11 @@
       <c r="C220" t="s">
         <v>914</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="1" t="s">
         <v>800</v>
       </c>
       <c r="E220" t="s">
-        <v>1304</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -8138,7 +8186,7 @@
         <v>802</v>
       </c>
       <c r="E222" t="s">
-        <v>1304</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -8169,10 +8217,10 @@
         <v>916</v>
       </c>
       <c r="D224" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E224" t="s">
-        <v>1304</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -8203,10 +8251,10 @@
         <v>917</v>
       </c>
       <c r="D226" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E226" t="s">
-        <v>1304</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -8240,7 +8288,7 @@
         <v>808</v>
       </c>
       <c r="E228" t="s">
-        <v>1304</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -8270,11 +8318,11 @@
       <c r="C230" t="s">
         <v>919</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="1" t="s">
         <v>812</v>
       </c>
       <c r="E230" t="s">
-        <v>1304</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -8308,7 +8356,7 @@
         <v>812</v>
       </c>
       <c r="E232" t="s">
-        <v>1304</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -8342,7 +8390,7 @@
         <v>814</v>
       </c>
       <c r="E234" t="s">
-        <v>1304</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -8376,7 +8424,7 @@
         <v>816</v>
       </c>
       <c r="E236" t="s">
-        <v>1304</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -8407,10 +8455,10 @@
         <v>923</v>
       </c>
       <c r="D238" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E238" t="s">
-        <v>1304</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -8444,7 +8492,7 @@
         <v>820</v>
       </c>
       <c r="E240" t="s">
-        <v>1304</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -8478,7 +8526,7 @@
         <v>820</v>
       </c>
       <c r="E242" t="s">
-        <v>1304</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -8512,7 +8560,7 @@
         <v>820</v>
       </c>
       <c r="E244" t="s">
-        <v>1304</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -8546,7 +8594,7 @@
         <v>826</v>
       </c>
       <c r="E246" t="s">
-        <v>1304</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -8580,7 +8628,7 @@
         <v>828</v>
       </c>
       <c r="E248" t="s">
-        <v>1304</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -8611,10 +8659,10 @@
         <v>929</v>
       </c>
       <c r="D250" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E250" t="s">
-        <v>1304</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -8648,7 +8696,7 @@
         <v>840</v>
       </c>
       <c r="E252" t="s">
-        <v>1304</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -8682,7 +8730,7 @@
         <v>834</v>
       </c>
       <c r="E254" t="s">
-        <v>1304</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -8716,7 +8764,7 @@
         <v>836</v>
       </c>
       <c r="E256" t="s">
-        <v>1304</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -8747,10 +8795,10 @@
         <v>933</v>
       </c>
       <c r="D258" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E258" t="s">
-        <v>1304</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -8784,7 +8832,7 @@
         <v>840</v>
       </c>
       <c r="E260" t="s">
-        <v>1304</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -8818,7 +8866,7 @@
         <v>842</v>
       </c>
       <c r="E262" t="s">
-        <v>1304</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -8849,10 +8897,10 @@
         <v>936</v>
       </c>
       <c r="D264" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E264" t="s">
-        <v>1304</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -8883,10 +8931,10 @@
         <v>937</v>
       </c>
       <c r="D266" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E266" t="s">
-        <v>1304</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -8920,7 +8968,7 @@
         <v>848</v>
       </c>
       <c r="E268" t="s">
-        <v>1304</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -8942,1572 +8990,2070 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B270" t="s">
         <v>907</v>
       </c>
       <c r="C270" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D270" t="s">
-        <v>851</v>
-      </c>
-      <c r="E270" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E270" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B271" t="s">
         <v>907</v>
       </c>
       <c r="C271" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D271" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B272" t="s">
         <v>907</v>
       </c>
       <c r="C272" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D272" t="s">
-        <v>855</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>1214</v>
+        <v>1316</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B273" t="s">
         <v>907</v>
       </c>
       <c r="C273" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D273" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B274" t="s">
         <v>907</v>
       </c>
       <c r="C274" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D274" t="s">
-        <v>859</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>1216</v>
+        <v>855</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B275" t="s">
         <v>907</v>
       </c>
       <c r="C275" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D275" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="B276" t="s">
         <v>907</v>
       </c>
       <c r="C276" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D276" t="s">
-        <v>863</v>
-      </c>
-      <c r="E276" s="3" t="s">
-        <v>1218</v>
+        <v>1317</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="B277" t="s">
         <v>907</v>
       </c>
       <c r="C277" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D277" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="B278" t="s">
         <v>907</v>
       </c>
       <c r="C278" t="s">
-        <v>948</v>
-      </c>
-      <c r="D278" t="s">
-        <v>867</v>
-      </c>
-      <c r="E278" s="3" t="s">
-        <v>1220</v>
+        <v>943</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="B279" t="s">
         <v>907</v>
       </c>
       <c r="C279" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D279" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="B280" t="s">
         <v>907</v>
       </c>
       <c r="C280" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D280" t="s">
-        <v>871</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>1222</v>
+        <v>861</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="B281" t="s">
         <v>907</v>
       </c>
       <c r="C281" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D281" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="B282" t="s">
         <v>907</v>
       </c>
       <c r="C282" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="D282" t="s">
-        <v>875</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>1224</v>
+        <v>861</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="B283" t="s">
         <v>907</v>
       </c>
       <c r="C283" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="D283" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="B284" t="s">
         <v>907</v>
       </c>
       <c r="C284" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="D284" t="s">
-        <v>879</v>
-      </c>
-      <c r="E284" s="3" t="s">
-        <v>1226</v>
+        <v>1319</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="B285" t="s">
         <v>907</v>
       </c>
       <c r="C285" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="D285" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="B286" t="s">
         <v>907</v>
       </c>
       <c r="C286" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="D286" t="s">
-        <v>882</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>1228</v>
+        <v>865</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="B287" t="s">
         <v>907</v>
       </c>
       <c r="C287" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D287" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="B288" t="s">
         <v>907</v>
       </c>
       <c r="C288" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="D288" t="s">
-        <v>886</v>
-      </c>
-      <c r="E288" s="3" t="s">
-        <v>1230</v>
+        <v>867</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="B289" t="s">
         <v>907</v>
       </c>
       <c r="C289" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="D289" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="B290" t="s">
         <v>907</v>
       </c>
       <c r="C290" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="D290" t="s">
-        <v>890</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>1232</v>
+        <v>869</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="B291" t="s">
         <v>907</v>
       </c>
       <c r="C291" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="D291" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
       <c r="B292" t="s">
         <v>907</v>
       </c>
       <c r="C292" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="D292" t="s">
-        <v>894</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>1234</v>
+        <v>871</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>895</v>
+        <v>872</v>
       </c>
       <c r="B293" t="s">
         <v>907</v>
       </c>
       <c r="C293" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="D293" t="s">
-        <v>896</v>
+        <v>873</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="B294" t="s">
         <v>907</v>
       </c>
       <c r="C294" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="D294" t="s">
-        <v>898</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>1236</v>
+        <v>873</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
       <c r="B295" t="s">
         <v>907</v>
       </c>
       <c r="C295" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="D295" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>901</v>
+        <v>874</v>
       </c>
       <c r="B296" t="s">
         <v>907</v>
       </c>
       <c r="C296" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
       <c r="D296" t="s">
-        <v>902</v>
-      </c>
-      <c r="E296" s="3" t="s">
-        <v>1238</v>
+        <v>1320</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>903</v>
+        <v>876</v>
       </c>
       <c r="B297" t="s">
         <v>907</v>
       </c>
       <c r="C297" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="D297" t="s">
-        <v>904</v>
+        <v>877</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="B298" t="s">
-        <v>968</v>
+        <v>907</v>
       </c>
       <c r="C298" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="D298" t="s">
-        <v>906</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>1240</v>
+        <v>1321</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>715</v>
+        <v>878</v>
       </c>
       <c r="B299" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C299" t="s">
-        <v>767</v>
+        <v>954</v>
       </c>
       <c r="D299" t="s">
-        <v>716</v>
+        <v>879</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>717</v>
+        <v>878</v>
       </c>
       <c r="B300" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C300" t="s">
-        <v>768</v>
+        <v>954</v>
       </c>
       <c r="D300" t="s">
-        <v>718</v>
-      </c>
-      <c r="E300" s="3" t="s">
-        <v>1242</v>
+        <v>879</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>719</v>
+        <v>880</v>
       </c>
       <c r="B301" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C301" t="s">
-        <v>769</v>
+        <v>955</v>
       </c>
       <c r="D301" t="s">
-        <v>720</v>
+        <v>877</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>1243</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>721</v>
+        <v>880</v>
       </c>
       <c r="B302" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C302" t="s">
-        <v>770</v>
+        <v>955</v>
       </c>
       <c r="D302" t="s">
-        <v>722</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>1244</v>
+        <v>1322</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>723</v>
+        <v>881</v>
       </c>
       <c r="B303" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C303" t="s">
-        <v>771</v>
+        <v>956</v>
       </c>
       <c r="D303" t="s">
-        <v>724</v>
+        <v>882</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>1245</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>725</v>
+        <v>881</v>
       </c>
       <c r="B304" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C304" t="s">
-        <v>772</v>
+        <v>956</v>
       </c>
       <c r="D304" t="s">
-        <v>726</v>
-      </c>
-      <c r="E304" s="3" t="s">
-        <v>1246</v>
+        <v>1323</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>727</v>
+        <v>883</v>
       </c>
       <c r="B305" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C305" t="s">
-        <v>773</v>
+        <v>957</v>
       </c>
       <c r="D305" t="s">
-        <v>728</v>
+        <v>884</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>1247</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>744</v>
+        <v>883</v>
       </c>
       <c r="B306" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C306" t="s">
-        <v>782</v>
+        <v>957</v>
       </c>
       <c r="D306" t="s">
-        <v>745</v>
-      </c>
-      <c r="E306" s="3" t="s">
-        <v>1248</v>
+        <v>884</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>746</v>
+        <v>885</v>
       </c>
       <c r="B307" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C307" t="s">
-        <v>783</v>
+        <v>958</v>
       </c>
       <c r="D307" t="s">
-        <v>747</v>
+        <v>886</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>1249</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>748</v>
+        <v>885</v>
       </c>
       <c r="B308" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C308" t="s">
-        <v>784</v>
+        <v>958</v>
       </c>
       <c r="D308" t="s">
-        <v>749</v>
-      </c>
-      <c r="E308" s="3" t="s">
-        <v>1250</v>
+        <v>1324</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>750</v>
+        <v>887</v>
       </c>
       <c r="B309" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C309" t="s">
-        <v>785</v>
+        <v>959</v>
       </c>
       <c r="D309" t="s">
-        <v>751</v>
+        <v>888</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>1251</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>752</v>
+        <v>887</v>
       </c>
       <c r="B310" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C310" t="s">
-        <v>786</v>
+        <v>959</v>
       </c>
       <c r="D310" t="s">
-        <v>751</v>
-      </c>
-      <c r="E310" s="3" t="s">
-        <v>1252</v>
+        <v>1325</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>729</v>
+        <v>889</v>
       </c>
       <c r="B311" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C311" t="s">
-        <v>774</v>
+        <v>960</v>
       </c>
       <c r="D311" t="s">
-        <v>730</v>
+        <v>890</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>1253</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>731</v>
+        <v>889</v>
       </c>
       <c r="B312" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C312" t="s">
-        <v>775</v>
+        <v>960</v>
       </c>
       <c r="D312" t="s">
-        <v>730</v>
-      </c>
-      <c r="E312" s="3" t="s">
-        <v>1254</v>
+        <v>1326</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>732</v>
+        <v>891</v>
       </c>
       <c r="B313" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C313" t="s">
-        <v>776</v>
+        <v>961</v>
       </c>
       <c r="D313" t="s">
-        <v>733</v>
+        <v>892</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>1255</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>734</v>
+        <v>891</v>
       </c>
       <c r="B314" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C314" t="s">
-        <v>777</v>
+        <v>961</v>
       </c>
       <c r="D314" t="s">
-        <v>735</v>
-      </c>
-      <c r="E314" s="3" t="s">
-        <v>1256</v>
+        <v>892</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>736</v>
+        <v>893</v>
       </c>
       <c r="B315" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C315" t="s">
-        <v>778</v>
+        <v>962</v>
       </c>
       <c r="D315" t="s">
-        <v>737</v>
+        <v>894</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>1257</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>738</v>
+        <v>893</v>
       </c>
       <c r="B316" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C316" t="s">
-        <v>779</v>
+        <v>962</v>
       </c>
       <c r="D316" t="s">
-        <v>739</v>
-      </c>
-      <c r="E316" s="3" t="s">
-        <v>1258</v>
+        <v>1327</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>740</v>
+        <v>895</v>
       </c>
       <c r="B317" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C317" t="s">
-        <v>780</v>
+        <v>963</v>
       </c>
       <c r="D317" t="s">
-        <v>741</v>
+        <v>896</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>1259</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>742</v>
+        <v>895</v>
       </c>
       <c r="B318" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C318" t="s">
-        <v>781</v>
+        <v>963</v>
       </c>
       <c r="D318" t="s">
-        <v>743</v>
-      </c>
-      <c r="E318" s="3" t="s">
-        <v>1260</v>
+        <v>896</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>208</v>
+        <v>897</v>
       </c>
       <c r="B319" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C319" t="s">
-        <v>47</v>
+        <v>964</v>
       </c>
       <c r="D319" t="s">
-        <v>149</v>
+        <v>898</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>209</v>
+        <v>897</v>
       </c>
       <c r="B320" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C320" t="s">
-        <v>48</v>
+        <v>964</v>
       </c>
       <c r="D320" t="s">
-        <v>150</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>1262</v>
+        <v>1328</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>210</v>
+        <v>899</v>
       </c>
       <c r="B321" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C321" t="s">
-        <v>49</v>
+        <v>965</v>
       </c>
       <c r="D321" t="s">
-        <v>151</v>
+        <v>900</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>1263</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>211</v>
+        <v>899</v>
       </c>
       <c r="B322" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C322" t="s">
-        <v>50</v>
+        <v>965</v>
       </c>
       <c r="D322" t="s">
-        <v>152</v>
-      </c>
-      <c r="E322" s="3" t="s">
-        <v>1264</v>
+        <v>900</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>212</v>
+        <v>901</v>
       </c>
       <c r="B323" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C323" t="s">
-        <v>51</v>
+        <v>966</v>
       </c>
       <c r="D323" t="s">
-        <v>153</v>
+        <v>902</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>1265</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>213</v>
+        <v>901</v>
       </c>
       <c r="B324" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C324" t="s">
-        <v>52</v>
+        <v>966</v>
       </c>
       <c r="D324" t="s">
-        <v>154</v>
-      </c>
-      <c r="E324" s="3" t="s">
-        <v>1266</v>
+        <v>1329</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>214</v>
+        <v>903</v>
       </c>
       <c r="B325" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C325" t="s">
-        <v>53</v>
+        <v>967</v>
       </c>
       <c r="D325" t="s">
-        <v>155</v>
+        <v>904</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>1267</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>215</v>
+        <v>903</v>
       </c>
       <c r="B326" t="s">
-        <v>185</v>
+        <v>907</v>
       </c>
       <c r="C326" t="s">
-        <v>54</v>
+        <v>967</v>
       </c>
       <c r="D326" t="s">
-        <v>156</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>1268</v>
+        <v>904</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>216</v>
+        <v>905</v>
       </c>
       <c r="B327" t="s">
-        <v>185</v>
+        <v>968</v>
       </c>
       <c r="C327" t="s">
-        <v>55</v>
+        <v>969</v>
       </c>
       <c r="D327" t="s">
-        <v>157</v>
+        <v>906</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>1269</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>217</v>
+        <v>715</v>
       </c>
       <c r="B328" t="s">
         <v>185</v>
       </c>
       <c r="C328" t="s">
-        <v>56</v>
+        <v>767</v>
       </c>
       <c r="D328" t="s">
-        <v>158</v>
+        <v>716</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>1270</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>218</v>
+        <v>717</v>
       </c>
       <c r="B329" t="s">
         <v>185</v>
       </c>
       <c r="C329" t="s">
-        <v>159</v>
+        <v>768</v>
       </c>
       <c r="D329" t="s">
-        <v>160</v>
+        <v>718</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>1271</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>219</v>
+        <v>719</v>
       </c>
       <c r="B330" t="s">
         <v>185</v>
       </c>
       <c r="C330" t="s">
-        <v>161</v>
+        <v>769</v>
       </c>
       <c r="D330" t="s">
-        <v>162</v>
+        <v>720</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>1272</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>220</v>
+        <v>721</v>
       </c>
       <c r="B331" t="s">
         <v>185</v>
       </c>
       <c r="C331" t="s">
-        <v>163</v>
+        <v>770</v>
       </c>
       <c r="D331" t="s">
-        <v>164</v>
+        <v>722</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>1273</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>221</v>
+        <v>723</v>
       </c>
       <c r="B332" t="s">
         <v>185</v>
       </c>
       <c r="C332" t="s">
-        <v>165</v>
+        <v>771</v>
       </c>
       <c r="D332" t="s">
-        <v>166</v>
+        <v>724</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>1274</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>222</v>
+        <v>725</v>
       </c>
       <c r="B333" t="s">
         <v>185</v>
       </c>
       <c r="C333" t="s">
-        <v>167</v>
+        <v>772</v>
       </c>
       <c r="D333" t="s">
-        <v>168</v>
+        <v>726</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>1275</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>223</v>
+        <v>727</v>
       </c>
       <c r="B334" t="s">
         <v>185</v>
       </c>
       <c r="C334" t="s">
-        <v>169</v>
+        <v>773</v>
       </c>
       <c r="D334" t="s">
-        <v>170</v>
+        <v>728</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>1276</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>224</v>
+        <v>744</v>
       </c>
       <c r="B335" t="s">
         <v>185</v>
       </c>
       <c r="C335" t="s">
-        <v>171</v>
+        <v>782</v>
       </c>
       <c r="D335" t="s">
-        <v>172</v>
+        <v>745</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>1277</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>186</v>
+        <v>746</v>
       </c>
       <c r="B336" t="s">
         <v>185</v>
       </c>
       <c r="C336" t="s">
-        <v>197</v>
+        <v>783</v>
       </c>
       <c r="D336" t="s">
-        <v>173</v>
+        <v>747</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>1278</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>187</v>
+        <v>748</v>
       </c>
       <c r="B337" t="s">
         <v>185</v>
       </c>
       <c r="C337" t="s">
-        <v>198</v>
+        <v>784</v>
       </c>
       <c r="D337" t="s">
-        <v>174</v>
+        <v>749</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>1279</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>188</v>
+        <v>750</v>
       </c>
       <c r="B338" t="s">
         <v>185</v>
       </c>
       <c r="C338" t="s">
-        <v>199</v>
+        <v>785</v>
       </c>
       <c r="D338" t="s">
-        <v>175</v>
+        <v>751</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>1280</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>189</v>
+        <v>752</v>
       </c>
       <c r="B339" t="s">
         <v>185</v>
       </c>
       <c r="C339" t="s">
-        <v>200</v>
+        <v>786</v>
       </c>
       <c r="D339" t="s">
-        <v>176</v>
+        <v>751</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>1281</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>190</v>
+        <v>729</v>
       </c>
       <c r="B340" t="s">
         <v>185</v>
       </c>
       <c r="C340" t="s">
-        <v>201</v>
+        <v>774</v>
       </c>
       <c r="D340" t="s">
-        <v>177</v>
+        <v>730</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>1282</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>191</v>
+        <v>731</v>
       </c>
       <c r="B341" t="s">
         <v>185</v>
       </c>
       <c r="C341" t="s">
-        <v>202</v>
+        <v>775</v>
       </c>
       <c r="D341" t="s">
-        <v>178</v>
+        <v>730</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>1283</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>192</v>
+        <v>732</v>
       </c>
       <c r="B342" t="s">
         <v>185</v>
       </c>
       <c r="C342" t="s">
-        <v>203</v>
+        <v>776</v>
       </c>
       <c r="D342" t="s">
-        <v>179</v>
+        <v>733</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>1284</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>193</v>
+        <v>734</v>
       </c>
       <c r="B343" t="s">
         <v>185</v>
       </c>
       <c r="C343" t="s">
-        <v>204</v>
+        <v>777</v>
       </c>
       <c r="D343" t="s">
-        <v>180</v>
+        <v>735</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>1285</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>194</v>
+        <v>736</v>
       </c>
       <c r="B344" t="s">
         <v>185</v>
       </c>
       <c r="C344" t="s">
-        <v>205</v>
+        <v>778</v>
       </c>
       <c r="D344" t="s">
-        <v>181</v>
+        <v>737</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>1286</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>195</v>
+        <v>738</v>
       </c>
       <c r="B345" t="s">
         <v>185</v>
       </c>
       <c r="C345" t="s">
-        <v>206</v>
+        <v>779</v>
       </c>
       <c r="D345" t="s">
-        <v>182</v>
+        <v>739</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>1287</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>196</v>
+        <v>740</v>
       </c>
       <c r="B346" t="s">
         <v>185</v>
       </c>
       <c r="C346" t="s">
-        <v>207</v>
+        <v>780</v>
       </c>
       <c r="D346" t="s">
-        <v>183</v>
+        <v>741</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>1288</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>225</v>
+        <v>742</v>
       </c>
       <c r="B347" t="s">
         <v>185</v>
       </c>
       <c r="C347" t="s">
-        <v>528</v>
+        <v>781</v>
       </c>
       <c r="D347" t="s">
-        <v>184</v>
+        <v>743</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>1289</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>687</v>
+        <v>208</v>
       </c>
       <c r="B348" t="s">
         <v>185</v>
       </c>
       <c r="C348" t="s">
-        <v>753</v>
+        <v>47</v>
       </c>
       <c r="D348" t="s">
-        <v>688</v>
+        <v>149</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>1290</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>689</v>
+        <v>209</v>
       </c>
       <c r="B349" t="s">
         <v>185</v>
       </c>
       <c r="C349" t="s">
-        <v>754</v>
+        <v>48</v>
       </c>
       <c r="D349" t="s">
-        <v>690</v>
+        <v>150</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>1291</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>691</v>
+        <v>210</v>
       </c>
       <c r="B350" t="s">
         <v>185</v>
       </c>
       <c r="C350" t="s">
-        <v>755</v>
+        <v>49</v>
       </c>
       <c r="D350" t="s">
-        <v>692</v>
+        <v>151</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>1292</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>693</v>
+        <v>211</v>
       </c>
       <c r="B351" t="s">
         <v>185</v>
       </c>
       <c r="C351" t="s">
-        <v>756</v>
+        <v>50</v>
       </c>
       <c r="D351" t="s">
-        <v>694</v>
+        <v>152</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>1293</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>695</v>
+        <v>212</v>
       </c>
       <c r="B352" t="s">
         <v>185</v>
       </c>
       <c r="C352" t="s">
-        <v>757</v>
+        <v>51</v>
       </c>
       <c r="D352" t="s">
-        <v>696</v>
+        <v>153</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>1294</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>697</v>
+        <v>213</v>
       </c>
       <c r="B353" t="s">
         <v>185</v>
       </c>
       <c r="C353" t="s">
-        <v>758</v>
+        <v>52</v>
       </c>
       <c r="D353" t="s">
-        <v>698</v>
+        <v>154</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>1295</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>699</v>
+        <v>214</v>
       </c>
       <c r="B354" t="s">
         <v>185</v>
       </c>
       <c r="C354" t="s">
-        <v>759</v>
+        <v>53</v>
       </c>
       <c r="D354" t="s">
-        <v>700</v>
+        <v>155</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>1296</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>701</v>
+        <v>215</v>
       </c>
       <c r="B355" t="s">
         <v>185</v>
       </c>
       <c r="C355" t="s">
-        <v>760</v>
+        <v>54</v>
       </c>
       <c r="D355" t="s">
-        <v>702</v>
+        <v>156</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>1297</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>703</v>
+        <v>216</v>
       </c>
       <c r="B356" t="s">
         <v>185</v>
       </c>
       <c r="C356" t="s">
-        <v>761</v>
+        <v>55</v>
       </c>
       <c r="D356" t="s">
-        <v>704</v>
+        <v>157</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>1298</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>705</v>
+        <v>217</v>
       </c>
       <c r="B357" t="s">
         <v>185</v>
       </c>
       <c r="C357" t="s">
-        <v>762</v>
+        <v>56</v>
       </c>
       <c r="D357" t="s">
-        <v>706</v>
+        <v>158</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>1299</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>707</v>
+        <v>218</v>
       </c>
       <c r="B358" t="s">
         <v>185</v>
       </c>
       <c r="C358" t="s">
-        <v>763</v>
+        <v>159</v>
       </c>
       <c r="D358" t="s">
-        <v>708</v>
+        <v>160</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>1300</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>709</v>
+        <v>219</v>
       </c>
       <c r="B359" t="s">
         <v>185</v>
       </c>
       <c r="C359" t="s">
-        <v>764</v>
+        <v>161</v>
       </c>
       <c r="D359" t="s">
-        <v>710</v>
+        <v>162</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>1301</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>711</v>
+        <v>220</v>
       </c>
       <c r="B360" t="s">
         <v>185</v>
       </c>
       <c r="C360" t="s">
-        <v>765</v>
+        <v>163</v>
       </c>
       <c r="D360" t="s">
-        <v>712</v>
+        <v>164</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>1302</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>713</v>
+        <v>221</v>
       </c>
       <c r="B361" t="s">
         <v>185</v>
       </c>
       <c r="C361" t="s">
+        <v>165</v>
+      </c>
+      <c r="D361" t="s">
+        <v>166</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>222</v>
+      </c>
+      <c r="B362" t="s">
+        <v>185</v>
+      </c>
+      <c r="C362" t="s">
+        <v>167</v>
+      </c>
+      <c r="D362" t="s">
+        <v>168</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>223</v>
+      </c>
+      <c r="B363" t="s">
+        <v>185</v>
+      </c>
+      <c r="C363" t="s">
+        <v>169</v>
+      </c>
+      <c r="D363" t="s">
+        <v>170</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>224</v>
+      </c>
+      <c r="B364" t="s">
+        <v>185</v>
+      </c>
+      <c r="C364" t="s">
+        <v>171</v>
+      </c>
+      <c r="D364" t="s">
+        <v>172</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>186</v>
+      </c>
+      <c r="B365" t="s">
+        <v>185</v>
+      </c>
+      <c r="C365" t="s">
+        <v>197</v>
+      </c>
+      <c r="D365" t="s">
+        <v>173</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>187</v>
+      </c>
+      <c r="B366" t="s">
+        <v>185</v>
+      </c>
+      <c r="C366" t="s">
+        <v>198</v>
+      </c>
+      <c r="D366" t="s">
+        <v>174</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>188</v>
+      </c>
+      <c r="B367" t="s">
+        <v>185</v>
+      </c>
+      <c r="C367" t="s">
+        <v>199</v>
+      </c>
+      <c r="D367" t="s">
+        <v>175</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>189</v>
+      </c>
+      <c r="B368" t="s">
+        <v>185</v>
+      </c>
+      <c r="C368" t="s">
+        <v>200</v>
+      </c>
+      <c r="D368" t="s">
+        <v>176</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>190</v>
+      </c>
+      <c r="B369" t="s">
+        <v>185</v>
+      </c>
+      <c r="C369" t="s">
+        <v>201</v>
+      </c>
+      <c r="D369" t="s">
+        <v>177</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>191</v>
+      </c>
+      <c r="B370" t="s">
+        <v>185</v>
+      </c>
+      <c r="C370" t="s">
+        <v>202</v>
+      </c>
+      <c r="D370" t="s">
+        <v>178</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>192</v>
+      </c>
+      <c r="B371" t="s">
+        <v>185</v>
+      </c>
+      <c r="C371" t="s">
+        <v>203</v>
+      </c>
+      <c r="D371" t="s">
+        <v>179</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>193</v>
+      </c>
+      <c r="B372" t="s">
+        <v>185</v>
+      </c>
+      <c r="C372" t="s">
+        <v>204</v>
+      </c>
+      <c r="D372" t="s">
+        <v>180</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>194</v>
+      </c>
+      <c r="B373" t="s">
+        <v>185</v>
+      </c>
+      <c r="C373" t="s">
+        <v>205</v>
+      </c>
+      <c r="D373" t="s">
+        <v>181</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>195</v>
+      </c>
+      <c r="B374" t="s">
+        <v>185</v>
+      </c>
+      <c r="C374" t="s">
+        <v>206</v>
+      </c>
+      <c r="D374" t="s">
+        <v>182</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>196</v>
+      </c>
+      <c r="B375" t="s">
+        <v>185</v>
+      </c>
+      <c r="C375" t="s">
+        <v>207</v>
+      </c>
+      <c r="D375" t="s">
+        <v>183</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>225</v>
+      </c>
+      <c r="B376" t="s">
+        <v>185</v>
+      </c>
+      <c r="C376" t="s">
+        <v>528</v>
+      </c>
+      <c r="D376" t="s">
+        <v>184</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>687</v>
+      </c>
+      <c r="B377" t="s">
+        <v>185</v>
+      </c>
+      <c r="C377" t="s">
+        <v>753</v>
+      </c>
+      <c r="D377" t="s">
+        <v>688</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>689</v>
+      </c>
+      <c r="B378" t="s">
+        <v>185</v>
+      </c>
+      <c r="C378" t="s">
+        <v>754</v>
+      </c>
+      <c r="D378" t="s">
+        <v>690</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>691</v>
+      </c>
+      <c r="B379" t="s">
+        <v>185</v>
+      </c>
+      <c r="C379" t="s">
+        <v>755</v>
+      </c>
+      <c r="D379" t="s">
+        <v>692</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>693</v>
+      </c>
+      <c r="B380" t="s">
+        <v>185</v>
+      </c>
+      <c r="C380" t="s">
+        <v>756</v>
+      </c>
+      <c r="D380" t="s">
+        <v>694</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>695</v>
+      </c>
+      <c r="B381" t="s">
+        <v>185</v>
+      </c>
+      <c r="C381" t="s">
+        <v>757</v>
+      </c>
+      <c r="D381" t="s">
+        <v>696</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>697</v>
+      </c>
+      <c r="B382" t="s">
+        <v>185</v>
+      </c>
+      <c r="C382" t="s">
+        <v>758</v>
+      </c>
+      <c r="D382" t="s">
+        <v>698</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>699</v>
+      </c>
+      <c r="B383" t="s">
+        <v>185</v>
+      </c>
+      <c r="C383" t="s">
+        <v>759</v>
+      </c>
+      <c r="D383" t="s">
+        <v>700</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>701</v>
+      </c>
+      <c r="B384" t="s">
+        <v>185</v>
+      </c>
+      <c r="C384" t="s">
+        <v>760</v>
+      </c>
+      <c r="D384" t="s">
+        <v>702</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>703</v>
+      </c>
+      <c r="B385" t="s">
+        <v>185</v>
+      </c>
+      <c r="C385" t="s">
+        <v>761</v>
+      </c>
+      <c r="D385" t="s">
+        <v>704</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>705</v>
+      </c>
+      <c r="B386" t="s">
+        <v>185</v>
+      </c>
+      <c r="C386" t="s">
+        <v>762</v>
+      </c>
+      <c r="D386" t="s">
+        <v>706</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>707</v>
+      </c>
+      <c r="B387" t="s">
+        <v>185</v>
+      </c>
+      <c r="C387" t="s">
+        <v>763</v>
+      </c>
+      <c r="D387" t="s">
+        <v>708</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>709</v>
+      </c>
+      <c r="B388" t="s">
+        <v>185</v>
+      </c>
+      <c r="C388" t="s">
+        <v>764</v>
+      </c>
+      <c r="D388" t="s">
+        <v>710</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>711</v>
+      </c>
+      <c r="B389" t="s">
+        <v>185</v>
+      </c>
+      <c r="C389" t="s">
+        <v>765</v>
+      </c>
+      <c r="D389" t="s">
+        <v>712</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>713</v>
+      </c>
+      <c r="B390" t="s">
+        <v>185</v>
+      </c>
+      <c r="C390" t="s">
         <v>766</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D390" t="s">
         <v>714</v>
       </c>
-      <c r="E361" s="3" t="s">
+      <c r="E390" s="3" t="s">
         <v>1303</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E361">
-    <sortCondition ref="B2:B361"/>
-    <sortCondition ref="C2:C361"/>
+  <autoFilter ref="A1:E331" xr:uid="{39A76ED3-B17C-46AB-8725-9D59597C7D79}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E331">
+      <sortCondition ref="E2:E331"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
+    <sortCondition ref="B2:B390"/>
+    <sortCondition ref="C2:C390"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{6534ED97-EC8B-4840-A548-CBC00BB56CA8}"/>
@@ -10516,6 +11062,9 @@
     <hyperlink ref="D12" r:id="rId4" xr:uid="{BB06E7F4-6540-4E3F-8AFE-15FF2AB5E0E8}"/>
     <hyperlink ref="D47" r:id="rId5" xr:uid="{082A8385-816D-4E53-8551-F060DDF2D06A}"/>
     <hyperlink ref="D58" r:id="rId6" xr:uid="{8F2DF384-9FA3-46A2-9E5E-29482302B3A5}"/>
+    <hyperlink ref="D230" r:id="rId7" xr:uid="{4785D6AE-6233-4DF5-AFBE-664F4DD4890A}"/>
+    <hyperlink ref="D210" r:id="rId8" xr:uid="{2B7321E6-A77C-44C4-8BA2-8D4CB805A3E8}"/>
+    <hyperlink ref="D220" r:id="rId9" xr:uid="{BEBABBE1-2AFE-4C3D-BF59-43EF6A3001C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
